--- a/05. Charting.xlsx
+++ b/05. Charting.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3FC02-295D-40DE-9860-51267CAE9083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C4A6F-35A8-4DDD-A540-0954B3C9D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bridge Chart" sheetId="2" r:id="rId1"/>
-    <sheet name="Bullet Chart" sheetId="3" r:id="rId2"/>
+    <sheet name="Variance Reporting" sheetId="4" r:id="rId1"/>
+    <sheet name="Bridge Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Bullet Chart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Bridge End</t>
   </si>
@@ -219,14 +227,121 @@
   <si>
     <t>Target Offset</t>
   </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Advertising Expense</t>
+  </si>
+  <si>
+    <t>Amortization Expense</t>
+  </si>
+  <si>
+    <t>Auto Expense</t>
+  </si>
+  <si>
+    <t>Bad Debt Expense</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>Cash Over and Short</t>
+  </si>
+  <si>
+    <t>Commission Expense</t>
+  </si>
+  <si>
+    <t>Depreciation Expense</t>
+  </si>
+  <si>
+    <t>Employee Benefit Program</t>
+  </si>
+  <si>
+    <t>Freight Expense</t>
+  </si>
+  <si>
+    <t>Gain/Loss on Sale of Assets</t>
+  </si>
+  <si>
+    <t>Gifts Expense</t>
+  </si>
+  <si>
+    <t>Insurance - General</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>License Expense</t>
+  </si>
+  <si>
+    <t>Maintenance Expense</t>
+  </si>
+  <si>
+    <t>Meals &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Office Expense</t>
+  </si>
+  <si>
+    <t>Payroll Taxes</t>
+  </si>
+  <si>
+    <t>Postage</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Professional Fees</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Repairs Expense</t>
+  </si>
+  <si>
+    <t>Salaries Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Utilities Expense</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Favorable</t>
+  </si>
+  <si>
+    <t>Unfavorable</t>
+  </si>
+  <si>
+    <t>Variance ($) vs Budget</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Variance (%) vs Budget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -466,14 +581,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -528,9 +644,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,6 +1023,1512 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8452317331145958E-2"/>
+          <c:y val="2.5396823088311864E-2"/>
+          <c:w val="0.90396371689633281"/>
+          <c:h val="0.92104296771603844"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$B$4:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Advertising Expense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amortization Expense</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Expense</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bad Debt Expense</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bank Charges</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cash Over and Short</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commission Expense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Depreciation Expense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Employee Benefit Program</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Freight Expense</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gain/Loss on Sale of Assets</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gifts Expense</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Insurance - General</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Interest Expense</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>License Expense</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maintenance Expense</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Meals &amp; Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Office Expense</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Payroll Taxes</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Postage</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Printing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Professional Fees</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Repairs Expense</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Salaries Expense</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Supplies Expense</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Utilities Expense</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variance Reporting'!$F$4:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>385.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1253.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>519.81999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>411.11999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>921.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1171.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1435.07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1157.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1299.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>414.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1B9-42E7-B05F-30C069826FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unfavorable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill dpi="0" rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+                <a:alphaModFix amt="40000"/>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:pictureOptions>
+            <c:pictureFormat val="stack"/>
+          </c:pictureOptions>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$B$4:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Advertising Expense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amortization Expense</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Expense</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bad Debt Expense</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bank Charges</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cash Over and Short</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commission Expense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Depreciation Expense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Employee Benefit Program</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Freight Expense</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gain/Loss on Sale of Assets</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gifts Expense</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Insurance - General</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Interest Expense</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>License Expense</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maintenance Expense</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Meals &amp; Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Office Expense</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Payroll Taxes</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Postage</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Printing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Professional Fees</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Repairs Expense</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Salaries Expense</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Supplies Expense</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Utilities Expense</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variance Reporting'!$G$4:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>461.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.289999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>356.11999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>391.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1118.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>693.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>547.19999999999982</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1B9-42E7-B05F-30C069826FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Favorable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill dpi="0" rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:pictureOptions>
+            <c:pictureFormat val="stack"/>
+          </c:pictureOptions>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$B$4:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Advertising Expense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amortization Expense</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Expense</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bad Debt Expense</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bank Charges</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cash Over and Short</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commission Expense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Depreciation Expense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Employee Benefit Program</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Freight Expense</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gain/Loss on Sale of Assets</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gifts Expense</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Insurance - General</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Interest Expense</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>License Expense</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maintenance Expense</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Meals &amp; Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Office Expense</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Payroll Taxes</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Postage</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Printing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Professional Fees</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Repairs Expense</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Salaries Expense</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Supplies Expense</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Utilities Expense</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variance Reporting'!$H$4:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>150.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1160.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.18000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1301.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>724.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>274.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>293.93000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>495.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>229.34999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>736.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>331.12999999999738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1B9-42E7-B05F-30C069826FB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2028606479"/>
+        <c:axId val="2028606895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2028606479"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2028606895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2028606895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2028606479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unfavorable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%;0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$B$4:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Advertising Expense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amortization Expense</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Expense</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bad Debt Expense</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bank Charges</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cash Over and Short</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commission Expense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Depreciation Expense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Employee Benefit Program</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Freight Expense</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gain/Loss on Sale of Assets</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gifts Expense</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Insurance - General</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Interest Expense</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>License Expense</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maintenance Expense</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Meals &amp; Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Office Expense</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Payroll Taxes</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Postage</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Printing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Professional Fees</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Repairs Expense</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Salaries Expense</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Supplies Expense</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Utilities Expense</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variance Reporting'!$J$4:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6153846153846159E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.38999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.59999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B2A-4063-9A55-AEBD5ACB3C07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Favorable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%;0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Variance Reporting'!$B$4:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Advertising Expense</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amortization Expense</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Expense</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bad Debt Expense</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bank Charges</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cash Over and Short</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commission Expense</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Depreciation Expense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Employee Benefit Program</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Freight Expense</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gain/Loss on Sale of Assets</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gifts Expense</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Insurance - General</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Interest Expense</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>License Expense</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maintenance Expense</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Meals &amp; Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Office Expense</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Payroll Taxes</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Postage</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Printing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Professional Fees</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Repairs Expense</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Salaries Expense</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Supplies Expense</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Utilities Expense</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variance Reporting'!$K$4:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.17000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.14999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2456925739221931E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B2A-4063-9A55-AEBD5ACB3C07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1884514527"/>
+        <c:axId val="1884514943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1884514527"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1884514943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1884514943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884514527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1443,7 +3099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5FE2112-913F-4E4C-AC7B-F4F299CFDDF3}" type="CELLRANGE">
+                    <a:fld id="{2619B49F-6349-4FE4-8318-A6EA94959D5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1477,7 +3133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D151A82-5177-40EC-8B43-E8B35D7D34AC}" type="CELLRANGE">
+                    <a:fld id="{2C9FFE2D-D8A2-4A99-9FC8-7663CD2F56FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1511,7 +3167,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B9FAC3B-0B3C-41A5-A573-9C60EE568D49}" type="CELLRANGE">
+                    <a:fld id="{42A37FB2-3635-4475-8EC1-D632F6A6BC74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1545,7 +3201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E40A735-72FF-48FF-B503-1A32E71BAA59}" type="CELLRANGE">
+                    <a:fld id="{F11B857F-BD47-4969-9D9D-4E1CA7E5F348}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1579,7 +3235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C37E7288-DD58-4201-813E-68E7CC8A9712}" type="CELLRANGE">
+                    <a:fld id="{3000D2BE-06A6-48B9-B9AF-4C051F2F3658}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1613,7 +3269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0866B8E-4408-4024-8881-3140344CF49B}" type="CELLRANGE">
+                    <a:fld id="{5AF39B5C-2FF5-490C-81A9-8DE1C593D783}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1647,7 +3303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58710E3D-16A8-491D-B1C4-C9C406B1DC01}" type="CELLRANGE">
+                    <a:fld id="{52443DBE-7A2F-4CFB-9156-3819BBAE3996}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1681,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{193D7B51-366D-4CD9-BD08-2587DCF20D6C}" type="CELLRANGE">
+                    <a:fld id="{19C4F4C6-BC4F-452D-920A-C54F6984959E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1715,7 +3371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{532FC827-1D37-498E-856E-9D75BD5E6ECC}" type="CELLRANGE">
+                    <a:fld id="{15CE88DE-7A33-43E4-B636-386960296138}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1749,7 +3405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C180AB50-8508-4630-A46C-83DF71AF2D3B}" type="CELLRANGE">
+                    <a:fld id="{BF30B9D1-5BF3-49BB-A913-90E4E027176F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1783,7 +3439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAD75A08-5DD9-4120-8C71-A793FF3C4FA5}" type="CELLRANGE">
+                    <a:fld id="{D9AD15A2-8158-4CC6-80AA-342B7FC1F18F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1817,7 +3473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2ECFF4A9-944A-41F0-BF6A-3713AC84D152}" type="CELLRANGE">
+                    <a:fld id="{5C33C6A8-10FF-48E1-90ED-1514BC7AA032}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1851,7 +3507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DABC0A2-ECE8-42DD-ACBC-B6A6775F3394}" type="CELLRANGE">
+                    <a:fld id="{8A7CBCD4-456D-4692-B2B7-21D2D0433EA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1885,7 +3541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{717E53F8-5537-415C-91C4-C830703661E5}" type="CELLRANGE">
+                    <a:fld id="{D20FF8C4-5CEA-4826-B1F1-708DD82F23BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1919,7 +3575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99E8E463-9ED5-4F29-9312-4034D06D6BF8}" type="CELLRANGE">
+                    <a:fld id="{13067604-06D0-4837-8B0A-F5B550C2CA1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1953,7 +3609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2A73FC8-A81D-4AE4-805B-1EC5D6EA45D1}" type="CELLRANGE">
+                    <a:fld id="{6B1F0D4F-F704-4FBF-8BE0-B4F784CDB087}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1987,7 +3643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83118205-44C4-4212-B7A0-DBC9E01A5443}" type="CELLRANGE">
+                    <a:fld id="{DC660C12-B565-4F4D-AC94-4EF6E9D1B5C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2021,7 +3677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE873E07-ED05-4E4C-AA32-965D99AD6E77}" type="CELLRANGE">
+                    <a:fld id="{DD16B749-89BA-4554-B9B6-A73407D79A02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2055,7 +3711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E89515A-EA98-4414-AEDD-230F983A5656}" type="CELLRANGE">
+                    <a:fld id="{9D082986-DF99-4B75-B071-9C9B1642312F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2089,7 +3745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0A3B814-4CBB-4AB8-90D5-5AEA28CABFEF}" type="CELLRANGE">
+                    <a:fld id="{D01D39FF-BE07-41D8-9DC5-CA612B3A5BEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2123,7 +3779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EBFE0FA-4E48-4A99-AA9D-A3E599396217}" type="CELLRANGE">
+                    <a:fld id="{1977A35A-3FEA-4729-B1F2-B2E7EE21E6F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2157,7 +3813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FB2F39A-CF0F-4CC1-827A-0D1D0CE6FB5C}" type="CELLRANGE">
+                    <a:fld id="{94AFAE13-3886-4766-8185-319AF6DF5EB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3207,7 +4863,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3282,19 +4938,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16135807260813473</c:v>
+                  <c:v>0.13390546641958667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62018221028776843</c:v>
+                  <c:v>0.3474336520693615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63798880907303335</c:v>
+                  <c:v>0.26413732844522331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12014042925435398</c:v>
+                  <c:v>0.84339462313759073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34013940622157834</c:v>
+                  <c:v>0.59852581585736719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3390,19 +5046,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3568,6 +5224,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="84894064"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3698,6 +5355,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4708,7 +6445,1094 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929A5D98-486D-4B07-AFC1-43586E9A3DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3BB803-9409-4D5F-AE21-E029351CB29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4751,7 +7575,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5117,29 +7941,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55D1441-4E5B-43DA-A0A9-375815E06AF0}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B1:V33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9.06640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.06640625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="45"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="41">
+        <v>536</v>
+      </c>
+      <c r="D4" s="41">
+        <v>385.91999999999996</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42">
+        <f t="shared" ref="F4:F30" si="0">MIN(C4:D4)</f>
+        <v>385.91999999999996</v>
+      </c>
+      <c r="G4" s="42" t="str">
+        <f>IF(D4-C4&gt;0,D4-C4,"")</f>
+        <v/>
+      </c>
+      <c r="H4" s="40">
+        <f>IF(D4-C4&lt;0,C4-D4,"")</f>
+        <v>150.08000000000004</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="43" t="str">
+        <f>IFERROR(G4/C4,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="43">
+        <f>IFERROR(-H4/C4,"")</f>
+        <v>-0.28000000000000008</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="19">
+        <v>520</v>
+      </c>
+      <c r="D5" s="19">
+        <v>570</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="42">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="G5" s="42">
+        <f>IF(D5-C5&gt;0,D5-C5,"")</f>
+        <v>50</v>
+      </c>
+      <c r="H5" s="40" t="str">
+        <f>IF(D5-C5&lt;0,C5-D5,"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="43">
+        <f>IFERROR(G5/C5,"")</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="K5" s="43" t="str">
+        <f>IFERROR(-H5/C5,"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1475</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1253.75</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42">
+        <f t="shared" si="0"/>
+        <v>1253.75</v>
+      </c>
+      <c r="G6" s="42" t="str">
+        <f>IF(D6-C6&gt;0,D6-C6,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="40">
+        <f>IF(D6-C6&lt;0,C6-D6,"")</f>
+        <v>221.25</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="44" t="str">
+        <f>IFERROR(G6/C6,"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="43">
+        <f>IFERROR(-H6/C6,"")</f>
+        <v>-0.15</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1842</v>
+      </c>
+      <c r="D7" s="19">
+        <v>681.54</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42">
+        <f t="shared" si="0"/>
+        <v>681.54</v>
+      </c>
+      <c r="G7" s="42" t="str">
+        <f>IF(D7-C7&gt;0,D7-C7,"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="40">
+        <f>IF(D7-C7&lt;0,C7-D7,"")</f>
+        <v>1160.46</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="44" t="str">
+        <f>IFERROR(G7/C7,"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="43">
+        <f>IFERROR(-H7/C7,"")</f>
+        <v>-0.63</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="19">
+        <v>658</v>
+      </c>
+      <c r="D8" s="19">
+        <v>519.81999999999994</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="42">
+        <f t="shared" si="0"/>
+        <v>519.81999999999994</v>
+      </c>
+      <c r="G8" s="42" t="str">
+        <f>IF(D8-C8&gt;0,D8-C8,"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="40">
+        <f>IF(D8-C8&lt;0,C8-D8,"")</f>
+        <v>138.18000000000006</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43" t="str">
+        <f>IFERROR(G8/C8,"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="43">
+        <f>IFERROR(-H8/C8,"")</f>
+        <v>-0.2100000000000001</v>
+      </c>
+      <c r="L8" s="45"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1248</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1709.76</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="42">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+      <c r="G9" s="42">
+        <f>IF(D9-C9&gt;0,D9-C9,"")</f>
+        <v>461.76</v>
+      </c>
+      <c r="H9" s="40" t="str">
+        <f>IF(D9-C9&lt;0,C9-D9,"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="44">
+        <f>IFERROR(G9/C9,"")</f>
+        <v>0.37</v>
+      </c>
+      <c r="K9" s="43" t="str">
+        <f>IFERROR(-H9/C9,"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="45"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="19">
+        <v>169</v>
+      </c>
+      <c r="D10" s="19">
+        <v>238.29</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="42">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="G10" s="42">
+        <f>IF(D10-C10&gt;0,D10-C10,"")</f>
+        <v>69.289999999999992</v>
+      </c>
+      <c r="H10" s="40" t="str">
+        <f>IF(D10-C10&lt;0,C10-D10,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="43">
+        <f>IFERROR(G10/C10,"")</f>
+        <v>0.41</v>
+      </c>
+      <c r="K10" s="43" t="str">
+        <f>IFERROR(-H10/C10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="19">
+        <v>439</v>
+      </c>
+      <c r="D11" s="19">
+        <v>878</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="42">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+      <c r="G11" s="42">
+        <f>IF(D11-C11&gt;0,D11-C11,"")</f>
+        <v>439</v>
+      </c>
+      <c r="H11" s="40" t="str">
+        <f>IF(D11-C11&lt;0,C11-D11,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="43">
+        <f>IFERROR(G11/C11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="43" t="str">
+        <f>IFERROR(-H11/C11,"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="19">
+        <v>140</v>
+      </c>
+      <c r="D12" s="19">
+        <v>33.599999999999994</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="42">
+        <f t="shared" si="0"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="G12" s="42" t="str">
+        <f>IF(D12-C12&gt;0,D12-C12,"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="40">
+        <f>IF(D12-C12&lt;0,C12-D12,"")</f>
+        <v>106.4</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="43" t="str">
+        <f>IFERROR(G12/C12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="43">
+        <f>IFERROR(-H12/C12,"")</f>
+        <v>-0.76</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="19">
+        <v>76</v>
+      </c>
+      <c r="D13" s="19">
+        <v>22.800000000000004</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42">
+        <f t="shared" si="0"/>
+        <v>22.800000000000004</v>
+      </c>
+      <c r="G13" s="42" t="str">
+        <f>IF(D13-C13&gt;0,D13-C13,"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="40">
+        <f>IF(D13-C13&lt;0,C13-D13,"")</f>
+        <v>53.199999999999996</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="43" t="str">
+        <f>IFERROR(G13/C13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="43">
+        <f>IFERROR(-H13/C13,"")</f>
+        <v>-0.7</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1228</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1584.12</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42">
+        <f t="shared" si="0"/>
+        <v>1228</v>
+      </c>
+      <c r="G14" s="42">
+        <f>IF(D14-C14&gt;0,D14-C14,"")</f>
+        <v>356.11999999999989</v>
+      </c>
+      <c r="H14" s="40" t="str">
+        <f>IF(D14-C14&lt;0,C14-D14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="43">
+        <f>IFERROR(G14/C14,"")</f>
+        <v>0.28999999999999992</v>
+      </c>
+      <c r="K14" s="43" t="str">
+        <f>IFERROR(-H14/C14,"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="19">
+        <v>111</v>
+      </c>
+      <c r="D15" s="19">
+        <v>244.2</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="G15" s="42">
+        <f>IF(D15-C15&gt;0,D15-C15,"")</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="H15" s="40" t="str">
+        <f>IF(D15-C15&lt;0,C15-D15,"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="43">
+        <f>IFERROR(G15/C15,"")</f>
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="43" t="str">
+        <f>IFERROR(-H15/C15,"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1713</v>
+      </c>
+      <c r="D16" s="19">
+        <v>411.11999999999989</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42">
+        <f t="shared" si="0"/>
+        <v>411.11999999999989</v>
+      </c>
+      <c r="G16" s="42" t="str">
+        <f>IF(D16-C16&gt;0,D16-C16,"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="40">
+        <f>IF(D16-C16&lt;0,C16-D16,"")</f>
+        <v>1301.8800000000001</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="44" t="str">
+        <f>IFERROR(G16/C16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="43">
+        <f>IFERROR(-H16/C16,"")</f>
+        <v>-0.76</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="19">
+        <v>584</v>
+      </c>
+      <c r="D17" s="19">
+        <v>975.28</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="G17" s="42">
+        <f>IF(D17-C17&gt;0,D17-C17,"")</f>
+        <v>391.28</v>
+      </c>
+      <c r="H17" s="40" t="str">
+        <f>IF(D17-C17&lt;0,C17-D17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="43">
+        <f>IFERROR(G17/C17,"")</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="K17" s="43" t="str">
+        <f>IFERROR(-H17/C17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1434</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2552.52</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42">
+        <f t="shared" si="0"/>
+        <v>1434</v>
+      </c>
+      <c r="G18" s="42">
+        <f>IF(D18-C18&gt;0,D18-C18,"")</f>
+        <v>1118.52</v>
+      </c>
+      <c r="H18" s="40" t="str">
+        <f>IF(D18-C18&lt;0,C18-D18,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="44">
+        <f>IFERROR(G18/C18,"")</f>
+        <v>0.78</v>
+      </c>
+      <c r="K18" s="43" t="str">
+        <f>IFERROR(-H18/C18,"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1646</v>
+      </c>
+      <c r="D19" s="19">
+        <v>921.76</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42">
+        <f t="shared" si="0"/>
+        <v>921.76</v>
+      </c>
+      <c r="G19" s="42" t="str">
+        <f>IF(D19-C19&gt;0,D19-C19,"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="40">
+        <f>IF(D19-C19&lt;0,C19-D19,"")</f>
+        <v>724.24</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="43" t="str">
+        <f>IFERROR(G19/C19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="43">
+        <f>IFERROR(-H19/C19,"")</f>
+        <v>-0.44</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1446</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1171.26</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42">
+        <f t="shared" si="0"/>
+        <v>1171.26</v>
+      </c>
+      <c r="G20" s="42" t="str">
+        <f>IF(D20-C20&gt;0,D20-C20,"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="40">
+        <f>IF(D20-C20&lt;0,C20-D20,"")</f>
+        <v>274.74</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="44" t="str">
+        <f>IFERROR(G20/C20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="43">
+        <f>IFERROR(-H20/C20,"")</f>
+        <v>-0.19</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1700</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3451</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="G21" s="42">
+        <f>IF(D21-C21&gt;0,D21-C21,"")</f>
+        <v>1751</v>
+      </c>
+      <c r="H21" s="40" t="str">
+        <f>IF(D21-C21&lt;0,C21-D21,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="44">
+        <f>IFERROR(G21/C21,"")</f>
+        <v>1.03</v>
+      </c>
+      <c r="K21" s="43" t="str">
+        <f>IFERROR(-H21/C21,"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1729</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1435.07</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42">
+        <f t="shared" si="0"/>
+        <v>1435.07</v>
+      </c>
+      <c r="G22" s="42" t="str">
+        <f>IF(D22-C22&gt;0,D22-C22,"")</f>
+        <v/>
+      </c>
+      <c r="H22" s="40">
+        <f>IF(D22-C22&lt;0,C22-D22,"")</f>
+        <v>293.93000000000006</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="44" t="str">
+        <f>IFERROR(G22/C22,"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="43">
+        <f>IFERROR(-H22/C22,"")</f>
+        <v>-0.17000000000000004</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1653</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42">
+        <f t="shared" si="0"/>
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="G23" s="42" t="str">
+        <f>IF(D23-C23&gt;0,D23-C23,"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="40">
+        <f>IF(D23-C23&lt;0,C23-D23,"")</f>
+        <v>495.90000000000009</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="44" t="str">
+        <f>IFERROR(G23/C23,"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="43">
+        <f>IFERROR(-H23/C23,"")</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="L23" s="45"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="25"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1779</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2472.81</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42">
+        <f t="shared" si="0"/>
+        <v>1779</v>
+      </c>
+      <c r="G24" s="42">
+        <f>IF(D24-C24&gt;0,D24-C24,"")</f>
+        <v>693.81</v>
+      </c>
+      <c r="H24" s="40" t="str">
+        <f>IF(D24-C24&lt;0,C24-D24,"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="44">
+        <f>IFERROR(G24/C24,"")</f>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="K24" s="43" t="str">
+        <f>IFERROR(-H24/C24,"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="25"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="19">
+        <v>250</v>
+      </c>
+      <c r="D25" s="19">
+        <v>142.5</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="G25" s="42" t="str">
+        <f>IF(D25-C25&gt;0,D25-C25,"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="40">
+        <f>IF(D25-C25&lt;0,C25-D25,"")</f>
+        <v>107.5</v>
+      </c>
+      <c r="I25" s="40"/>
+      <c r="J25" s="43" t="str">
+        <f>IFERROR(G25/C25,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="43">
+        <f>IFERROR(-H25/C25,"")</f>
+        <v>-0.43</v>
+      </c>
+      <c r="L25" s="45"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="25"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B26" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1529</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1299.6500000000001</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42">
+        <f t="shared" si="0"/>
+        <v>1299.6500000000001</v>
+      </c>
+      <c r="G26" s="42" t="str">
+        <f>IF(D26-C26&gt;0,D26-C26,"")</f>
+        <v/>
+      </c>
+      <c r="H26" s="40">
+        <f>IF(D26-C26&lt;0,C26-D26,"")</f>
+        <v>229.34999999999991</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="43" t="str">
+        <f>IFERROR(G26/C26,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="43">
+        <f>IFERROR(-H26/C26,"")</f>
+        <v>-0.14999999999999994</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="25"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="19">
+        <v>421</v>
+      </c>
+      <c r="D27" s="19">
+        <v>105.25</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42">
+        <f t="shared" si="0"/>
+        <v>105.25</v>
+      </c>
+      <c r="G27" s="42" t="str">
+        <f>IF(D27-C27&gt;0,D27-C27,"")</f>
+        <v/>
+      </c>
+      <c r="H27" s="40">
+        <f>IF(D27-C27&lt;0,C27-D27,"")</f>
+        <v>315.75</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="43" t="str">
+        <f>IFERROR(G27/C27,"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="43">
+        <f>IFERROR(-H27/C27,"")</f>
+        <v>-0.75</v>
+      </c>
+      <c r="L27" s="45"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="25"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="19">
+        <v>193</v>
+      </c>
+      <c r="D28" s="19">
+        <v>160.19</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42">
+        <f t="shared" si="0"/>
+        <v>160.19</v>
+      </c>
+      <c r="G28" s="42" t="str">
+        <f>IF(D28-C28&gt;0,D28-C28,"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="40">
+        <f>IF(D28-C28&lt;0,C28-D28,"")</f>
+        <v>32.81</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="43" t="str">
+        <f>IFERROR(G28/C28,"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="43">
+        <f>IFERROR(-H28/C28,"")</f>
+        <v>-0.17</v>
+      </c>
+      <c r="L28" s="45"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="25"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1151</v>
+      </c>
+      <c r="D29" s="19">
+        <v>414.36</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42">
+        <f t="shared" si="0"/>
+        <v>414.36</v>
+      </c>
+      <c r="G29" s="42" t="str">
+        <f>IF(D29-C29&gt;0,D29-C29,"")</f>
+        <v/>
+      </c>
+      <c r="H29" s="40">
+        <f>IF(D29-C29&lt;0,C29-D29,"")</f>
+        <v>736.64</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="44" t="str">
+        <f>IFERROR(G29/C29,"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="43">
+        <f>IFERROR(-H29/C29,"")</f>
+        <v>-0.64</v>
+      </c>
+      <c r="L29" s="45"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="25"/>
+    </row>
+    <row r="30" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="19">
+        <v>912</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1459.1999999999998</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42">
+        <f t="shared" si="0"/>
+        <v>912</v>
+      </c>
+      <c r="G30" s="42">
+        <f>IF(D30-C30&gt;0,D30-C30,"")</f>
+        <v>547.19999999999982</v>
+      </c>
+      <c r="H30" s="40" t="str">
+        <f>IF(D30-C30&lt;0,C30-D30,"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="44">
+        <f>IFERROR(G30/C30,"")</f>
+        <v>0.59999999999999976</v>
+      </c>
+      <c r="K30" s="43" t="str">
+        <f>IFERROR(-H30/C30,"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="45"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="25"/>
+    </row>
+    <row r="31" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="55">
+        <f t="shared" ref="C31:D31" si="1">SUM(C4:C30)</f>
+        <v>26582</v>
+      </c>
+      <c r="D31" s="55">
+        <f t="shared" si="1"/>
+        <v>26250.870000000003</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56" t="str">
+        <f>IF(D31-C31&gt;0,D31-C31,"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="56">
+        <f>IF(D31-C31&lt;0,C31-D31,"")</f>
+        <v>331.12999999999738</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="57" t="str">
+        <f>IFERROR(G31/C31,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="57">
+        <f>IFERROR(-H31/C31,"")</f>
+        <v>-1.2456925739221931E-2</v>
+      </c>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="50"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B32" s="45"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="25"/>
+    </row>
+    <row r="33" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="46"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835EE7B-ADFA-49F9-B3E3-739BC4F42E5E}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="35.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="14" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="16" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.86328125" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="14" width="12.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="32" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Bridge Chart</v>
@@ -5158,7 +9351,7 @@
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
@@ -5208,7 +9401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -5266,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -5322,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -5378,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
@@ -5434,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -5488,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -5544,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -5600,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
@@ -5656,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -5712,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -5766,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +10015,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -5878,7 +10071,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -5934,7 +10127,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
@@ -5988,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
@@ -6100,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
@@ -6156,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
@@ -6212,7 +10405,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
@@ -6268,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -6446,39 +10639,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD41C8C-25F0-4CA5-9148-2ADEF180D254}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.6">
       <c r="A1" s="32" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Bullet Chart</v>
       </c>
       <c r="B1" s="32"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="37">
         <f ca="1">DAY(TODAY())/DAY(EOMONTH(TODAY(),0))</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="38" t="s">
         <v>62</v>
       </c>
@@ -6492,84 +10687,84 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="36">
         <f ca="1">$C$3</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="D6" s="36">
         <f t="shared" ref="D6:D10" ca="1" si="0">RAND()</f>
-        <v>0.16135807260813473</v>
+        <v>0.13390546641958667</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="36">
         <f ca="1">$C$3</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="D7" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62018221028776843</v>
+        <v>0.3474336520693615</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" si="1">E6+1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="36">
         <f ca="1">$C$3</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="D8" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63798880907303335</v>
+        <v>0.26413732844522331</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="36">
         <f ca="1">$C$3</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="D9" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12014042925435398</v>
+        <v>0.84339462313759073</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="36">
         <f ca="1">$C$3</f>
-        <v>0.5</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="D10" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34013940622157834</v>
+        <v>0.59852581585736719</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>

--- a/05. Charting.xlsx
+++ b/05. Charting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castlenthesky\repositories\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3DCA9-A77B-46B4-9967-0BB2870A517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B97612-B0AA-4AF3-B750-4A5C83E140E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="0" windowWidth="17415" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variance Reporting" sheetId="4" r:id="rId1"/>
@@ -27,8 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -677,7 +681,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -732,9 +736,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,9 +763,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -795,6 +795,13 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1095,13 +1102,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4344,37 +4344,37 @@
                   <c:v>-800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-698.31999999999994</c:v>
+                  <c:v>-673.45999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-981.97640000000001</c:v>
+                  <c:v>-814.03100000000018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-791.05747599999995</c:v>
+                  <c:v>-940.30868999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-985.32058727999993</c:v>
+                  <c:v>-1192.8846794999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1679.8662862584001</c:v>
+                  <c:v>-1558.1392143449996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1385.24899051848</c:v>
+                  <c:v>-1597.6110798721002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1680.5296043980111</c:v>
+                  <c:v>-1391.226309275085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1612.5631162849836</c:v>
+                  <c:v>-1765.1982117242355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1474.7154875383865</c:v>
+                  <c:v>-2027.6113359501803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2335.8860406504573</c:v>
+                  <c:v>-2038.3181793639151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2176.729404091252</c:v>
+                  <c:v>-1906.3808535750543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,37 +4482,37 @@
                   <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>686.68000000000006</c:v>
+                  <c:v>711.54000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>575.02359999999999</c:v>
+                  <c:v>742.96899999999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>874.94252400000005</c:v>
+                  <c:v>725.69131000000016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>701.67941272000007</c:v>
+                  <c:v>494.11532050000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.133713741599877</c:v>
+                  <c:v>141.86078565500043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>445.75100948151999</c:v>
+                  <c:v>233.38892012789984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284.47039560198891</c:v>
+                  <c:v>573.77369072491501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>464.43688371501639</c:v>
+                  <c:v>311.80178827576447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>737.28451246161353</c:v>
+                  <c:v>184.38866404981968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-115.88604065045729</c:v>
+                  <c:v>181.68182063608492</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173.27059590874796</c:v>
+                  <c:v>443.61914642494571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,37 +4864,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58520000000000005</c:v>
+                  <c:v>0.66300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34526800000000002</c:v>
+                  <c:v>0.39117000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26930904</c:v>
+                  <c:v>0.21514350000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14273379120000002</c:v>
+                  <c:v>0.10972318500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9913653840000005E-2</c:v>
+                  <c:v>4.1694810300000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3936103841600001E-2</c:v>
+                  <c:v>1.4593183605000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1015911650704002E-2</c:v>
+                  <c:v>7.2965918025000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9589228757408319E-2</c:v>
+                  <c:v>4.1590573274250002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6274075816574574E-2</c:v>
+                  <c:v>2.4122532499065001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.334474216959115E-2</c:v>
+                  <c:v>1.5920871449382902E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,34 +4992,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.77999999999999992</c:v>
+                  <c:v>0.83999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59279999999999999</c:v>
+                  <c:v>0.66359999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32604000000000005</c:v>
+                  <c:v>0.40479599999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12063480000000001</c:v>
+                  <c:v>0.21049391999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7206272000000006E-2</c:v>
+                  <c:v>0.12629635199999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8603136000000003E-2</c:v>
+                  <c:v>9.0933373439999979E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7757442560000003E-2</c:v>
+                  <c:v>4.1829351782399986E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.056295705600001E-3</c:v>
+                  <c:v>2.7189078658559993E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6149033374720009E-3</c:v>
+                  <c:v>1.9304245847577593E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8074516687360005E-3</c:v>
+                  <c:v>1.5057311761110524E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,31 +5117,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69700000000000006</c:v>
+                  <c:v>0.63139999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24395</c:v>
+                  <c:v>0.25887399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13905149999999999</c:v>
+                  <c:v>0.10872707999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.177399E-2</c:v>
+                  <c:v>8.5894393199999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.39563763E-2</c:v>
+                  <c:v>4.4665084463999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9015570728E-2</c:v>
+                  <c:v>2.2332542231999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3310899509599999E-2</c:v>
+                  <c:v>1.3399525339199999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3858666910479988E-3</c:v>
+                  <c:v>7.1017484297759993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,28 +5239,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67230000000000001</c:v>
+                  <c:v>0.61560000000000015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41682599999999997</c:v>
+                  <c:v>0.3447360000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30428297999999998</c:v>
+                  <c:v>0.21028896000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15822714959999998</c:v>
+                  <c:v>8.4115584000000035E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11550581920799999</c:v>
+                  <c:v>4.7945882880000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4714771750559992E-2</c:v>
+                  <c:v>2.4452400268800006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0727351852740797E-2</c:v>
+                  <c:v>9.2919121021440027E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5358,25 +5358,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.84</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64679999999999993</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27812399999999998</c:v>
+                  <c:v>0.32400000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13906199999999999</c:v>
+                  <c:v>0.16200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3437199999999989E-2</c:v>
+                  <c:v>0.10044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7571667999999986E-2</c:v>
+                  <c:v>3.9171600000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8935917799999985E-2</c:v>
+                  <c:v>1.6060356000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,22 +5474,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.79</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60830000000000006</c:v>
+                  <c:v>0.66299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48664000000000007</c:v>
+                  <c:v>0.40442999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23358720000000002</c:v>
+                  <c:v>0.14559479999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10044249600000001</c:v>
+                  <c:v>9.3180671999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7207973120000003E-2</c:v>
+                  <c:v>6.895369727999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5589,19 +5589,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60060000000000013</c:v>
+                  <c:v>0.60040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45645600000000008</c:v>
+                  <c:v>0.31220800000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16888872000000002</c:v>
+                  <c:v>0.19044688000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10808878080000002</c:v>
+                  <c:v>0.1352172848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,16 +5701,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.77</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64680000000000004</c:v>
+                  <c:v>0.64780000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26518799999999998</c:v>
+                  <c:v>0.24616400000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18563160000000001</c:v>
+                  <c:v>0.18462300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5810,13 +5810,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67149999999999999</c:v>
+                  <c:v>0.59279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28203</c:v>
+                  <c:v>0.25490400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5916,10 +5916,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.84</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63839999999999997</c:v>
+                  <c:v>0.63180000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6019,7 +6019,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7090,19 +7090,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66850140204816955</c:v>
+                  <c:v>0.18687350926003865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56951791123071649</c:v>
+                  <c:v>0.10955904512664028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64847499206781778</c:v>
+                  <c:v>0.57691319053480183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96502210424257373</c:v>
+                  <c:v>9.2989509386789404E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65525965078566195</c:v>
+                  <c:v>0.87419458543842588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7198,19 +7198,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12903225806451613</c:v>
+                  <c:v>0.74193548387096775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,7 +8013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8357B574-3003-4BCA-BB82-93CF86A93729}" type="CELLRANGE">
+                    <a:fld id="{742AC8D7-7853-4DBD-9E78-D65F9886457F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8047,7 +8047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97A2CA17-6519-4862-872F-585EA6DEAAFF}" type="CELLRANGE">
+                    <a:fld id="{3EAF9774-5EDA-4348-8DA6-FC202FCEB033}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8081,7 +8081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E84726E-76FE-49C9-BA02-E1D2E36C00D9}" type="CELLRANGE">
+                    <a:fld id="{A1A349BD-6562-4737-832D-65AE4AFA8F57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8115,7 +8115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDD8CC1E-DE34-455D-BE53-D95FCEEBE24C}" type="CELLRANGE">
+                    <a:fld id="{03B2F04A-923C-4857-9677-783F6F73BDDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8149,7 +8149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389A5AC4-D9AA-4CDB-886F-F59DA9E508A7}" type="CELLRANGE">
+                    <a:fld id="{0ED6ED07-864F-4C6A-9CCB-D7C1527F6092}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8183,7 +8183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20CEEC31-5153-4801-9DC7-A22786DD18CB}" type="CELLRANGE">
+                    <a:fld id="{E1627EC2-730D-4C98-B0FB-E0F0301FD551}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8217,7 +8217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A45105C8-0E8F-457B-BEFF-470DB40915B4}" type="CELLRANGE">
+                    <a:fld id="{09FC00DD-0D6B-4FE7-84A0-313BD27FD780}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8251,7 +8251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{636AA82A-E4C4-4911-A8B3-2928C4BF1AFB}" type="CELLRANGE">
+                    <a:fld id="{10D3DD47-9AC3-4B47-B53C-99070DD81D34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8285,7 +8285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA22CBCB-2366-434D-A17C-9F1309A941C3}" type="CELLRANGE">
+                    <a:fld id="{144F1A13-7185-4A6D-8AEF-2A85CD2B36F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8319,7 +8319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C04FD0DB-8963-43F2-8F75-FE052195E339}" type="CELLRANGE">
+                    <a:fld id="{ED45DBC8-896A-418F-8731-14849495FEF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8353,7 +8353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65F469BA-219A-4B4F-80E8-37F160749454}" type="CELLRANGE">
+                    <a:fld id="{8D03872B-06E2-4C9D-8BCF-09E934375411}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8387,7 +8387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{877165E8-ED7F-4D74-BD2A-30D7B56C9853}" type="CELLRANGE">
+                    <a:fld id="{E3FD1DDE-ED98-4A5F-B0DC-6D22F3B5931A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8421,7 +8421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8738ABDC-BC9F-4521-8D58-8FBCF0A4E95B}" type="CELLRANGE">
+                    <a:fld id="{B4F7F10B-6D11-4F72-9068-D0C5ABABD71B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8455,7 +8455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{272FEA54-D579-4692-9A7E-622F7051FDE2}" type="CELLRANGE">
+                    <a:fld id="{3228B0D2-3AC1-4F0B-B111-C26EE8AD2A04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8489,7 +8489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D18234C-7E4F-4CF8-8A4C-B5E78200F93C}" type="CELLRANGE">
+                    <a:fld id="{1AC76BB5-B1E6-4EBF-AEEE-1DB6735C46C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8523,7 +8523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1ED0EBB-25DB-4013-8A5A-8F9E6602F93E}" type="CELLRANGE">
+                    <a:fld id="{66FBBA94-34F0-47D5-AE54-34A92A2C94B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8557,7 +8557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56D7F5AB-99E9-4CD4-BCAD-B35D06EB18E2}" type="CELLRANGE">
+                    <a:fld id="{98AAE7DB-A7A8-4DD0-887F-85874B154E67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8591,7 +8591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A982F392-0291-4ED0-94CF-62840626204C}" type="CELLRANGE">
+                    <a:fld id="{F843486B-828B-4194-AAF2-4A27BC7DDEFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8625,7 +8625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E46D8EA4-9C34-466C-9753-57C9D340FD3A}" type="CELLRANGE">
+                    <a:fld id="{3FDAC21B-E717-4B40-A994-760C97357D76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8659,7 +8659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75C1AE86-8243-4A7B-AB99-0D5CE54022B2}" type="CELLRANGE">
+                    <a:fld id="{EEE0CD77-0DED-4447-A6D4-CA02B1088A20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8693,7 +8693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BAF7369-1C44-4FA4-A1E3-A00697971407}" type="CELLRANGE">
+                    <a:fld id="{2AA83DA2-D9E3-48F4-8331-2F95C9635899}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8727,7 +8727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8DD0666-81CC-4CC4-8795-9A5B6E81360A}" type="CELLRANGE">
+                    <a:fld id="{CDED2F87-97F5-4994-B42C-0B81B72F52E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21891,7 +21891,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{306839BD-4829-4E93-8447-5641917E264C}" name="Table1322" displayName="Table1322" ref="A2:P24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{306839BD-4829-4E93-8447-5641917E264C}" name="Table1322" displayName="Table1322" ref="A2:P24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A2:P24" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -21910,42 +21910,42 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Graph Label" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Amount" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Graph Label" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Amount" dataDxfId="12" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Check Values"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Check Variance" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Check Variance" dataDxfId="11" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(Table1322[[#This Row],[Check Values]]&lt;&gt;"",Table1322[[#This Row],[Cumulative Blance]]-Table1322[[#This Row],[Check Values]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B14B7927-F2FB-4737-AA47-20EEFCBBCFB8}" name="Display" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="16" xr3:uid="{B14B7927-F2FB-4737-AA47-20EEFCBBCFB8}" name="Display" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(Table1322[[#This Row],[Amount]]="",Table1322[[#This Row],[Cumulative Blance]],Table1322[[#This Row],[Amount]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Blance" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Blance" dataDxfId="9">
       <calculatedColumnFormula>SUM($B$3:B3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Previous Blance" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Previous Blance" dataDxfId="8">
       <calculatedColumnFormula>H3-B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Abutment" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Abutment" dataDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(OR(AND(B3="",H3=I3),ISERROR(OFFSET(Table1322[[#This Row],[Cumulative Blance]],-1,0)+H3)),H3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Spacer (Positive)" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Spacer (Positive)" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(H3&gt;0,I3&gt;0,H3&lt;&gt;I3),IF(AND(I3&gt;0,B3&gt;0),I3,I3+B3),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Spacer (Negative)" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Spacer (Negative)" dataDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(H3&lt;0,I3&lt;0,H3&lt;&gt;I3),IF(AND(B3&lt;0,I3&lt;0),I3,H3),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Increase" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Increase" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(B3&gt;0,H3&gt;0,I3&gt;=0,J3=""),B3,IF(AND(H3&gt;0,I3&lt;0),H3,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Increase (Negative)" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Increase (Negative)" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(B3&gt;0,H3&lt;=0,I3&lt;0),-B3,IF(AND(H3&gt;0,I3&lt;0),I3,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Decrease" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Decrease" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(H3&gt;0,I3&gt;0,B3&lt;0),-B3,IF(AND(H3&lt;=0,I3&gt;0),I3,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Decrease (Negative)" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Decrease (Negative)" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(AND(B3&lt;0,H3&lt;0,I3&lt;=0,J3=""),B3,IF(AND(B3&lt;0,H3&lt;0,I3&gt;0),H3,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22221,129 +22221,111 @@
   </sheetPr>
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="9.06640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.06640625" collapsed="1"/>
+    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="52" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="52" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="F3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
+      <c r="J3" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="L3" s="44"/>
       <c r="R3" s="25"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
+      <c r="S3" s="44"/>
       <c r="V3" s="25"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>536</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>385.91999999999996</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <f t="shared" ref="F4:F30" si="0">MIN(C4:D4)</f>
         <v>385.91999999999996</v>
       </c>
-      <c r="G4" s="42" t="str">
+      <c r="G4" s="41" t="str">
         <f t="shared" ref="G4:G31" si="1">IF(D4-C4&gt;0,D4-C4,"")</f>
         <v/>
       </c>
-      <c r="H4" s="40">
+      <c r="H4">
         <f t="shared" ref="H4:H31" si="2">IF(D4-C4&lt;0,C4-D4,"")</f>
         <v>150.08000000000004</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="43" t="str">
+      <c r="J4" s="42" t="str">
         <f t="shared" ref="J4:J31" si="3">IFERROR(G4/C4,"")</f>
         <v/>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="42">
         <f t="shared" ref="K4:K31" si="4">IFERROR(-H4/C4,"")</f>
         <v>-0.28000000000000008</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="L4" s="44"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="S4" s="44"/>
       <c r="V4" s="25"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>67</v>
       </c>
@@ -22353,41 +22335,32 @@
       <c r="D5" s="19">
         <v>570</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H5" s="40" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f t="shared" si="3"/>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="K5" s="43" t="str">
+      <c r="K5" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="L5" s="44"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="S5" s="44"/>
       <c r="V5" s="25"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>68</v>
       </c>
@@ -22397,41 +22370,32 @@
       <c r="D6" s="19">
         <v>1253.75</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <f t="shared" si="0"/>
         <v>1253.75</v>
       </c>
-      <c r="G6" s="42" t="str">
+      <c r="G6" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H6" s="40">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>221.25</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="44" t="str">
+      <c r="J6" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="42">
         <f t="shared" si="4"/>
         <v>-0.15</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="L6" s="44"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="S6" s="44"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>69</v>
       </c>
@@ -22441,41 +22405,32 @@
       <c r="D7" s="19">
         <v>681.54</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
         <v>681.54</v>
       </c>
-      <c r="G7" s="42" t="str">
+      <c r="G7" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="40">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>1160.46</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="44" t="str">
+      <c r="J7" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="42">
         <f t="shared" si="4"/>
         <v>-0.63</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="L7" s="44"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="S7" s="44"/>
       <c r="V7" s="25"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>70</v>
       </c>
@@ -22485,41 +22440,32 @@
       <c r="D8" s="19">
         <v>519.81999999999994</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
         <v>519.81999999999994</v>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="40">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>138.18000000000006</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="43" t="str">
+      <c r="J8" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="42">
         <f t="shared" si="4"/>
         <v>-0.2100000000000001</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="L8" s="44"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="S8" s="44"/>
       <c r="V8" s="25"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>71</v>
       </c>
@@ -22529,41 +22475,32 @@
       <c r="D9" s="19">
         <v>1709.76</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f t="shared" si="1"/>
         <v>461.76</v>
       </c>
-      <c r="H9" s="40" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
-      <c r="K9" s="43" t="str">
+      <c r="K9" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="L9" s="44"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="S9" s="44"/>
       <c r="V9" s="25"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>72</v>
       </c>
@@ -22573,41 +22510,32 @@
       <c r="D10" s="19">
         <v>238.29</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <f t="shared" si="1"/>
         <v>69.289999999999992</v>
       </c>
-      <c r="H10" s="40" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <f t="shared" si="3"/>
         <v>0.41</v>
       </c>
-      <c r="K10" s="43" t="str">
+      <c r="K10" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="L10" s="44"/>
       <c r="R10" s="25"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
+      <c r="S10" s="44"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>73</v>
       </c>
@@ -22617,41 +22545,32 @@
       <c r="D11" s="19">
         <v>878</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <f t="shared" si="1"/>
         <v>439</v>
       </c>
-      <c r="H11" s="40" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K11" s="43" t="str">
+      <c r="K11" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="L11" s="44"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
+      <c r="S11" s="44"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>74</v>
       </c>
@@ -22661,41 +22580,32 @@
       <c r="D12" s="19">
         <v>33.599999999999994</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <f t="shared" si="0"/>
         <v>33.599999999999994</v>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H12" s="40">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>106.4</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <f t="shared" si="4"/>
         <v>-0.76</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="L12" s="44"/>
       <c r="R12" s="25"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
+      <c r="S12" s="44"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
@@ -22705,41 +22615,32 @@
       <c r="D13" s="19">
         <v>22.800000000000004</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <f t="shared" si="0"/>
         <v>22.800000000000004</v>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H13" s="40">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>53.199999999999996</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="43" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="42">
         <f t="shared" si="4"/>
         <v>-0.7</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="L13" s="44"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
+      <c r="S13" s="44"/>
       <c r="V13" s="25"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>76</v>
       </c>
@@ -22749,41 +22650,32 @@
       <c r="D14" s="19">
         <v>1584.12</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <f t="shared" si="0"/>
         <v>1228</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <f t="shared" si="1"/>
         <v>356.11999999999989</v>
       </c>
-      <c r="H14" s="40" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <f t="shared" si="3"/>
         <v>0.28999999999999992</v>
       </c>
-      <c r="K14" s="43" t="str">
+      <c r="K14" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
+      <c r="L14" s="44"/>
       <c r="R14" s="25"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
+      <c r="S14" s="44"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>77</v>
       </c>
@@ -22793,41 +22685,32 @@
       <c r="D15" s="19">
         <v>244.2</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <f t="shared" si="1"/>
         <v>133.19999999999999</v>
       </c>
-      <c r="H15" s="40" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="L15" s="44"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
+      <c r="S15" s="44"/>
       <c r="V15" s="25"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>78</v>
       </c>
@@ -22837,41 +22720,32 @@
       <c r="D16" s="19">
         <v>411.11999999999989</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <f t="shared" si="0"/>
         <v>411.11999999999989</v>
       </c>
-      <c r="G16" s="42" t="str">
+      <c r="G16" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="40">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>1301.8800000000001</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="44" t="str">
+      <c r="J16" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="42">
         <f t="shared" si="4"/>
         <v>-0.76</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="L16" s="44"/>
       <c r="R16" s="25"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
+      <c r="S16" s="44"/>
       <c r="V16" s="25"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
@@ -22881,41 +22755,32 @@
       <c r="D17" s="19">
         <v>975.28</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <f t="shared" si="0"/>
         <v>584</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <f t="shared" si="1"/>
         <v>391.28</v>
       </c>
-      <c r="H17" s="40" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <f t="shared" si="3"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="K17" s="43" t="str">
+      <c r="K17" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="L17" s="44"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
+      <c r="S17" s="44"/>
       <c r="V17" s="25"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>80</v>
       </c>
@@ -22925,41 +22790,32 @@
       <c r="D18" s="19">
         <v>2552.52</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <f t="shared" si="0"/>
         <v>1434</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <f t="shared" si="1"/>
         <v>1118.52</v>
       </c>
-      <c r="H18" s="40" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
-      <c r="K18" s="43" t="str">
+      <c r="K18" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="L18" s="44"/>
       <c r="R18" s="25"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
+      <c r="S18" s="44"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>81</v>
       </c>
@@ -22969,41 +22825,32 @@
       <c r="D19" s="19">
         <v>921.76</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <f t="shared" si="0"/>
         <v>921.76</v>
       </c>
-      <c r="G19" s="42" t="str">
+      <c r="G19" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="40">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>724.24</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="43" t="str">
+      <c r="J19" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <f t="shared" si="4"/>
         <v>-0.44</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="L19" s="44"/>
       <c r="R19" s="25"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
+      <c r="S19" s="44"/>
       <c r="V19" s="25"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
@@ -23013,41 +22860,32 @@
       <c r="D20" s="19">
         <v>1171.26</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <f t="shared" si="0"/>
         <v>1171.26</v>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="40">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>274.74</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="44" t="str">
+      <c r="J20" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="42">
         <f t="shared" si="4"/>
         <v>-0.19</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="L20" s="44"/>
       <c r="R20" s="25"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
+      <c r="S20" s="44"/>
       <c r="V20" s="25"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
@@ -23057,41 +22895,32 @@
       <c r="D21" s="19">
         <v>3451</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <f t="shared" si="1"/>
         <v>1751</v>
       </c>
-      <c r="H21" s="40" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <f t="shared" si="3"/>
         <v>1.03</v>
       </c>
-      <c r="K21" s="43" t="str">
+      <c r="K21" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="L21" s="44"/>
       <c r="R21" s="25"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
+      <c r="S21" s="44"/>
       <c r="V21" s="25"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>84</v>
       </c>
@@ -23101,41 +22930,32 @@
       <c r="D22" s="19">
         <v>1435.07</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <f t="shared" si="0"/>
         <v>1435.07</v>
       </c>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="40">
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>293.93000000000006</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="44" t="str">
+      <c r="J22" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="42">
         <f t="shared" si="4"/>
         <v>-0.17000000000000004</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="L22" s="44"/>
       <c r="R22" s="25"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
+      <c r="S22" s="44"/>
       <c r="V22" s="25"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>85</v>
       </c>
@@ -23145,41 +22965,32 @@
       <c r="D23" s="19">
         <v>1157.0999999999999</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <f t="shared" si="0"/>
         <v>1157.0999999999999</v>
       </c>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H23" s="40">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>495.90000000000009</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="44" t="str">
+      <c r="J23" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="42">
         <f t="shared" si="4"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="L23" s="44"/>
       <c r="R23" s="25"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
+      <c r="S23" s="44"/>
       <c r="V23" s="25"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>86</v>
       </c>
@@ -23189,41 +23000,32 @@
       <c r="D24" s="19">
         <v>2472.81</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <f t="shared" si="0"/>
         <v>1779</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <f t="shared" si="1"/>
         <v>693.81</v>
       </c>
-      <c r="H24" s="40" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <f t="shared" si="3"/>
         <v>0.38999999999999996</v>
       </c>
-      <c r="K24" s="43" t="str">
+      <c r="K24" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="L24" s="44"/>
       <c r="R24" s="25"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
+      <c r="S24" s="44"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>87</v>
       </c>
@@ -23233,41 +23035,32 @@
       <c r="D25" s="19">
         <v>142.5</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="G25" s="42" t="str">
+      <c r="G25" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H25" s="40">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>107.5</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="43" t="str">
+      <c r="J25" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="42">
         <f t="shared" si="4"/>
         <v>-0.43</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="L25" s="44"/>
       <c r="R25" s="25"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
+      <c r="S25" s="44"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>88</v>
       </c>
@@ -23277,41 +23070,32 @@
       <c r="D26" s="19">
         <v>1299.6500000000001</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <f t="shared" si="0"/>
         <v>1299.6500000000001</v>
       </c>
-      <c r="G26" s="42" t="str">
+      <c r="G26" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H26" s="40">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>229.34999999999991</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="43" t="str">
+      <c r="J26" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="42">
         <f t="shared" si="4"/>
         <v>-0.14999999999999994</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
+      <c r="L26" s="44"/>
       <c r="R26" s="25"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
+      <c r="S26" s="44"/>
       <c r="V26" s="25"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>89</v>
       </c>
@@ -23321,41 +23105,32 @@
       <c r="D27" s="19">
         <v>105.25</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <f t="shared" si="0"/>
         <v>105.25</v>
       </c>
-      <c r="G27" s="42" t="str">
+      <c r="G27" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H27" s="40">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>315.75</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="43" t="str">
+      <c r="J27" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="42">
         <f t="shared" si="4"/>
         <v>-0.75</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
+      <c r="L27" s="44"/>
       <c r="R27" s="25"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
+      <c r="S27" s="44"/>
       <c r="V27" s="25"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
@@ -23365,41 +23140,32 @@
       <c r="D28" s="19">
         <v>160.19</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <f t="shared" si="0"/>
         <v>160.19</v>
       </c>
-      <c r="G28" s="42" t="str">
+      <c r="G28" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H28" s="40">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>32.81</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="43" t="str">
+      <c r="J28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="42">
         <f t="shared" si="4"/>
         <v>-0.17</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
+      <c r="L28" s="44"/>
       <c r="R28" s="25"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
+      <c r="S28" s="44"/>
       <c r="V28" s="25"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>91</v>
       </c>
@@ -23409,41 +23175,32 @@
       <c r="D29" s="19">
         <v>414.36</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <f t="shared" si="0"/>
         <v>414.36</v>
       </c>
-      <c r="G29" s="42" t="str">
+      <c r="G29" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H29" s="40">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>736.64</v>
       </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="44" t="str">
+      <c r="J29" s="43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="42">
         <f t="shared" si="4"/>
         <v>-0.64</v>
       </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
+      <c r="L29" s="44"/>
       <c r="R29" s="25"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
+      <c r="S29" s="44"/>
       <c r="V29" s="25"/>
     </row>
-    <row r="30" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
         <v>92</v>
       </c>
@@ -23453,108 +23210,83 @@
       <c r="D30" s="19">
         <v>1459.1999999999998</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f t="shared" si="1"/>
         <v>547.19999999999982</v>
       </c>
-      <c r="H30" s="40" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <f t="shared" si="3"/>
         <v>0.59999999999999976</v>
       </c>
-      <c r="K30" s="43" t="str">
+      <c r="K30" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
+      <c r="L30" s="44"/>
       <c r="R30" s="25"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
+      <c r="S30" s="44"/>
       <c r="V30" s="25"/>
     </row>
-    <row r="31" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="51" t="s">
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <f t="shared" ref="C31:D31" si="5">SUM(C4:C30)</f>
         <v>26582</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="54">
         <f t="shared" si="5"/>
         <v>26250.870000000003</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56" t="str">
+      <c r="E31" s="48"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="55">
         <f t="shared" si="2"/>
         <v>331.12999999999738</v>
       </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="57" t="str">
+      <c r="I31" s="48"/>
+      <c r="J31" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K31" s="57">
+      <c r="K31" s="56">
         <f t="shared" si="4"/>
         <v>-1.2456925739221931E-2</v>
       </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="50"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B32" s="45"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+      <c r="L32" s="44"/>
       <c r="R32" s="25"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
+      <c r="S32" s="44"/>
       <c r="V32" s="25"/>
     </row>
-    <row r="33" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="46"/>
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -23564,17 +23296,17 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="46"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="45"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="47"/>
+      <c r="V33" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23594,30 +23326,30 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Bullet Chart</v>
       </c>
       <c r="B1" s="32"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="37">
         <f ca="1">DAY(TODAY())/DAY(EOMONTH(TODAY(),0))</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>62</v>
       </c>
@@ -23631,84 +23363,84 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="36">
         <f ca="1">$C$3</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D6" s="36">
         <f t="shared" ref="D6:D10" ca="1" si="0">RAND()</f>
-        <v>0.66850140204816955</v>
+        <v>0.18687350926003865</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="36">
         <f ca="1">$C$3</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D7" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56951791123071649</v>
+        <v>0.10955904512664028</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" si="1">E6+1</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="36">
         <f ca="1">$C$3</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D8" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64847499206781778</v>
+        <v>0.57691319053480183</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="36">
         <f ca="1">$C$3</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D9" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96502210424257373</v>
+        <v>9.2989509386789404E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="36">
         <f ca="1">$C$3</f>
-        <v>0.12903225806451613</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D10" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65525965078566195</v>
+        <v>0.87419458543842588</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -23727,25 +23459,27 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="4" max="4" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="14" width="12.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="16" width="9.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="14" width="12.140625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Bridge Chart</v>
@@ -23764,7 +23498,7 @@
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
@@ -23814,7 +23548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -23872,7 +23606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -23928,7 +23662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -23984,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
@@ -24040,7 +23774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -24094,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -24150,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -24206,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
@@ -24262,7 +23996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -24318,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -24372,7 +24106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -24428,7 +24162,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -24484,7 +24218,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -24540,7 +24274,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
@@ -24594,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
@@ -24650,7 +24384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
@@ -24706,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
@@ -24762,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
@@ -24818,7 +24552,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
@@ -24874,7 +24608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -24928,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>1</v>
       </c>
@@ -24982,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -25039,7 +24773,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:P24">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($F3&lt;&gt;"",$F3=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25061,39 +24795,39 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="4.46484375" customWidth="1"/>
-    <col min="21" max="21" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:31" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
-    <row r="2" spans="1:31" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>101</v>
       </c>
@@ -25103,2469 +24837,2469 @@
       <c r="C2" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="63">
         <v>0</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="63">
         <f t="shared" ref="E2:S2" si="0">D2+10000</f>
         <v>10000</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="63">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="63">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="63">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="63">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="63">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="63">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="L2" s="65">
+      <c r="L2" s="63">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="63">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="N2" s="65">
+      <c r="N2" s="63">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="O2" s="65">
+      <c r="O2" s="63">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="63">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="Q2" s="65">
+      <c r="Q2" s="63">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="R2" s="65">
+      <c r="R2" s="63">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="S2" s="65">
+      <c r="S2" s="63">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A3" s="60">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
         <v>43466</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="57">
         <v>6.3873536488515246</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <v>0.60298250100286621</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="57">
         <v>0</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>3.0670583214574787E-18</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <v>2.1111281869736472E-12</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="57">
         <v>9.2862023897161858E-8</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="57">
         <v>2.610313416790015E-4</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="57">
         <v>0.25</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="57">
         <v>0.53826307580328392</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="57">
         <v>0.39485897246093826</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="57">
         <v>1.8510596061920022E-2</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="57">
         <v>5.545360274608871E-5</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="57">
         <v>1.0616224662566225E-8</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="57">
         <v>1.2987973824167031E-13</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="57">
         <v>1.015415244588847E-19</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="57">
         <v>5.0731408978733444E-27</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="57">
         <v>1.6197244566388054E-35</v>
       </c>
-      <c r="S3" s="59">
+      <c r="S3" s="57">
         <v>0</v>
       </c>
-      <c r="T3" s="59"/>
+      <c r="T3" s="57"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A4" s="60">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
         <f t="shared" ref="A4:A27" si="1">EOMONTH(A3,0)+1</f>
         <v>43497</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="57">
         <v>6.0179020241332264</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="57">
         <v>0.8</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="57">
         <v>1.4277658995469466E-9</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="57">
         <v>1.6612619897291543E-6</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="57">
         <v>4.0516705397906612E-4</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="57">
         <v>2.0713094705723283E-2</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="57">
         <v>0.22195796285994249</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="57">
         <v>0.49855300870283753</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="57">
         <v>0.23472904123104557</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="57">
         <v>2.316526006822521E-2</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="57">
         <v>4.7920617715250673E-4</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="57">
         <v>2.0778897801952337E-6</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="57">
         <v>1.8885890986956616E-9</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="57">
         <v>3.5980510589492425E-13</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="57">
         <v>1.436852002284096E-17</v>
       </c>
-      <c r="R4" s="59">
+      <c r="R4" s="57">
         <v>1.2027396409011121E-22</v>
       </c>
-      <c r="S4" s="59">
+      <c r="S4" s="57">
         <v>0</v>
       </c>
-      <c r="T4" s="59"/>
+      <c r="T4" s="57"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A5" s="60">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
         <f t="shared" si="1"/>
         <v>43525</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="57">
         <v>5.5893837426759063</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="57">
         <v>1.0926224296065652</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="57">
         <v>0</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="57">
         <v>5.386984021401747E-5</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <v>1.655769032193334E-3</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="57">
         <v>2.2022641551923974E-2</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="57">
         <v>0.1267519503279089</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="57">
         <v>0.31568611243110567</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="57">
         <v>0.34022943927343718</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="57">
         <v>0.15867331235893783</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="57">
         <v>3.2022222615025984E-2</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="57">
         <v>2.7964988358648488E-3</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="57">
         <v>1.0568014473641813E-4</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="57">
         <v>1.7281750941795855E-6</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="57">
         <v>1.2229189380899153E-8</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="57">
         <v>3.7447530667546289E-11</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="57">
         <v>4.9620859860449519E-14</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="57">
         <v>0</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="64" t="s">
+      <c r="T5" s="57"/>
+      <c r="U5" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" s="60">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
         <f t="shared" si="1"/>
         <v>43556</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="57">
         <v>4.6277478977740962</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="57">
         <v>1.5774895744474366</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="57">
         <v>0</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="57">
         <v>1.7969557991353621E-2</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="57">
         <v>6.3153822088329148E-2</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <v>0.14850443645941944</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="57">
         <v>0.23364514488773583</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="57">
         <v>0.24595272449595362</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="57">
         <v>0.17323038023794532</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="57">
         <v>8.1634553858309283E-2</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="57">
         <v>2.5739584535861258E-2</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="57">
         <v>5.4300844729795565E-3</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="57">
         <v>7.6645944943959886E-4</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="57">
         <v>7.2385124225042951E-5</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="57">
         <v>4.5739036228207192E-6</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="57">
         <v>1.9337585129800497E-7</v>
       </c>
-      <c r="R6" s="59">
+      <c r="R6" s="57">
         <v>5.4700968024058165E-9</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="57">
         <v>0</v>
       </c>
-      <c r="T6" s="59"/>
+      <c r="T6" s="57"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A7" s="60">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
         <f t="shared" si="1"/>
         <v>43586</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="57">
         <v>4.4120669895085776</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="57">
         <v>2.9506962470517015</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="57">
         <v>0</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="57">
         <v>6.9282434983108848E-2</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="57">
         <v>9.6801036365301851E-2</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="57">
         <v>0.12057460660969946</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="57">
         <v>0.13389078350901154</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="57">
         <v>0.13254534960272715</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <v>0.1169761408752278</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <v>9.2034162964601318E-2</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="57">
         <v>6.4553504852143756E-2</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="57">
         <v>4.0365428698681004E-2</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="57">
         <v>2.2501853580308852E-2</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="57">
         <v>1.1182682697307433E-2</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="57">
         <v>4.9544185450815775E-3</v>
       </c>
-      <c r="Q7" s="59">
+      <c r="Q7" s="57">
         <v>1.9568537357238201E-3</v>
       </c>
-      <c r="R7" s="59">
+      <c r="R7" s="57">
         <v>6.8903775848434573E-4</v>
       </c>
-      <c r="S7" s="59">
+      <c r="S7" s="57">
         <v>0</v>
       </c>
-      <c r="T7" s="59"/>
+      <c r="T7" s="57"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A8" s="60">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
         <f t="shared" si="1"/>
         <v>43617</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="57">
         <v>4.1558226625437547</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="57">
         <v>3.0399427007641178</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="57">
         <v>0</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="57">
         <v>7.6564415414397929E-2</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <v>0.10205584714110104</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="57">
         <v>0.12208255551687014</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="57">
         <v>0.13106119691099521</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="57">
         <v>0.12626978660082769</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="57">
         <v>0.10917659910030884</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="57">
         <v>8.4715811522988987E-2</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="57">
         <v>5.8993503359068555E-2</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="57">
         <v>3.6867925271505508E-2</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="57">
         <v>2.0677498970304728E-2</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="57">
         <v>1.0407636504920798E-2</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="57">
         <v>4.7012248394237462E-3</v>
       </c>
-      <c r="Q8" s="59">
+      <c r="Q8" s="57">
         <v>1.9057886100199669E-3</v>
       </c>
-      <c r="R8" s="59">
+      <c r="R8" s="57">
         <v>6.9333516968007468E-4</v>
       </c>
-      <c r="S8" s="59">
+      <c r="S8" s="57">
         <v>0</v>
       </c>
-      <c r="T8" s="59"/>
+      <c r="T8" s="57"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A9" s="60">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
         <f t="shared" si="1"/>
         <v>43647</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="57">
         <v>3.1111950200372371</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="57">
         <v>2.9506962470517015</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="57">
         <v>0</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="57">
         <v>0.10466997310918656</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <v>0.1259476763200936</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <v>0.13510679406333068</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <v>0.12920615445092087</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="57">
         <v>0.1101560096689774</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="57">
         <v>8.3724424850043805E-2</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="57">
         <v>5.6730306866379414E-2</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="57">
         <v>3.4268656268780881E-2</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="57">
         <v>1.8454318025015355E-2</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="57">
         <v>8.8596773972549336E-3</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="57">
         <v>3.7918993306406252E-3</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="57">
         <v>1.4468205613696263E-3</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="57">
         <v>4.9214324426162331E-4</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="57">
         <v>1.492407305357487E-4</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S9" s="57">
         <v>0</v>
       </c>
-      <c r="T9" s="59"/>
+      <c r="T9" s="57"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A10" s="60">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
         <f t="shared" si="1"/>
         <v>43678</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="57">
         <v>4.6418301074049682</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="57">
         <v>1.5774895744474366</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="57">
         <v>0</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="57">
         <v>1.7603714338548158E-2</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="57">
         <v>6.2219170811128863E-2</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="57">
         <v>0.1471369229835652</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="57">
         <v>0.23280733756892463</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="57">
         <v>0.24646156556219534</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="57">
         <v>0.17457388849496044</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="57">
         <v>8.2734550626268208E-2</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="57">
         <v>2.6234457216841232E-2</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="57">
         <v>5.5658922950190216E-3</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="57">
         <v>7.9008725654089993E-4</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="57">
         <v>7.5040005990276349E-5</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="57">
         <v>4.7685704927001393E-6</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="57">
         <v>2.0275010985995116E-7</v>
       </c>
-      <c r="R10" s="59">
+      <c r="R10" s="57">
         <v>5.7678178053267782E-9</v>
       </c>
-      <c r="S10" s="59">
+      <c r="S10" s="57">
         <v>0</v>
       </c>
-      <c r="T10" s="59"/>
-      <c r="U10" s="63" t="s">
+      <c r="T10" s="57"/>
+      <c r="U10" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11" s="60">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
         <f t="shared" si="1"/>
         <v>43709</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="57">
         <v>5.6113341237998169</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="57">
         <v>1.2791985533541421</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="57">
         <v>0</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="57">
         <v>4.7004273898173642E-4</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <v>5.7983469998249106E-3</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="57">
         <v>3.8820979458226219E-2</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="57">
         <v>0.14106660284343575</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="57">
         <v>0.27821296196925593</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="57">
         <v>0.29780085814964469</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="57">
         <v>0.17300950463118356</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="57">
         <v>5.4551841198535587E-2</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="57">
         <v>9.3356443083708919E-3</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="57">
         <v>8.6711083450123042E-4</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="57">
         <v>4.371196820068777E-5</v>
       </c>
-      <c r="P11" s="59">
+      <c r="P11" s="57">
         <v>1.1959734634335712E-6</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="57">
         <v>1.7759803574633886E-8</v>
       </c>
-      <c r="R11" s="59">
+      <c r="R11" s="57">
         <v>1.4313643803077588E-10</v>
       </c>
-      <c r="S11" s="59">
+      <c r="S11" s="57">
         <v>0</v>
       </c>
-      <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="61"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A12" s="60">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
         <f t="shared" si="1"/>
         <v>43739</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="57">
         <v>7.0271695564387757</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="57">
         <v>1.2113188128453267</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="57">
         <v>0</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="57">
         <v>1.3854483330536305E-6</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>5.9915735263224801E-5</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="57">
         <v>1.310714276965815E-3</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="57">
         <v>1.4504132046232254E-2</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="57">
         <v>8.1188036439661951E-2</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="57">
         <v>0.22988408671422328</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="57">
         <v>0.3292625659585966</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="57">
         <v>0.23855712142411292</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="57">
         <v>8.7429700590480303E-2</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="57">
         <v>1.6208475715467342E-2</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="57">
         <v>1.5199942193736566E-3</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="57">
         <v>7.2103820358362483E-5</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="57">
         <v>1.7301796271263452E-6</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="57">
         <v>2.1001034570591402E-8</v>
       </c>
-      <c r="S12" s="59">
+      <c r="S12" s="57">
         <v>0</v>
       </c>
-      <c r="T12" s="59"/>
-      <c r="U12" s="63" t="s">
+      <c r="T12" s="57"/>
+      <c r="U12" s="61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" s="60">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
         <f t="shared" si="1"/>
         <v>43770</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="57">
         <v>7.8060561353276539</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="57">
         <v>0.99157156660124357</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="57">
         <v>0</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="57">
         <v>2.3663395074197216E-11</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>1.4438376968374104E-8</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="57">
         <v>3.1860366421990564E-6</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <v>2.5425776423741264E-4</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="57">
         <v>7.3381865671226171E-3</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="57">
         <v>7.6593928008595435E-2</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="57">
         <v>0.28912856663686559</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="57">
         <v>0.39471054759170893</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="57">
         <v>0.1948756283154858</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="57">
         <v>3.4795845415447314E-2</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="57">
         <v>2.2469236989670926E-3</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="57">
         <v>5.2473535289329135E-5</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="57">
         <v>4.4318330568239748E-7</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="57">
         <v>1.3536847241011523E-9</v>
       </c>
-      <c r="S13" s="59">
+      <c r="S13" s="57">
         <v>0</v>
       </c>
-      <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="61"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A14" s="60">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="57">
         <v>7.8940743264537536</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="57">
         <v>0.86164489260382093</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="57">
         <v>0</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="57">
         <v>5.8139037425653719E-15</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="57">
         <v>3.19711693067068E-11</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="57">
         <v>4.571799500887911E-8</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="57">
         <v>1.7000191115329034E-5</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="57">
         <v>1.6438356843431568E-3</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="57">
         <v>4.1333385286256838E-2</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="57">
         <v>0.27025984358356209</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="57">
         <v>0.45951536552446859</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="57">
         <v>0.20316857172110203</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="57">
         <v>2.3358824793532178E-2</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="57">
         <v>6.9836653969231543E-4</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="57">
         <v>5.429424889195995E-6</v>
       </c>
-      <c r="Q14" s="59">
+      <c r="Q14" s="57">
         <v>1.0976457699131115E-8</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="57">
         <v>5.7704350744996743E-12</v>
       </c>
-      <c r="S14" s="59">
+      <c r="S14" s="57">
         <v>0</v>
       </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="63" t="s">
+      <c r="T14" s="57"/>
+      <c r="U14" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" s="60">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
         <f t="shared" si="1"/>
         <v>43831</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="57">
         <v>6.2645734401569841</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="57">
         <v>0.70433289324212067</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="57">
         <v>0</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="57">
         <v>4.1816321514020455E-13</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <v>6.2010187639782462E-9</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="57">
         <v>1.225000503347625E-5</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="57">
         <v>3.2237807020124086E-3</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="57">
         <v>0.11301880674491814</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <v>0.52782741884065809</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="57">
         <v>0.32838943608048321</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="57">
         <v>2.7217135262259204E-2</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="57">
         <v>3.0050496215563343E-4</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="57">
         <v>4.4199452152262927E-7</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="57">
         <v>8.660403509284398E-11</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="57">
         <v>2.2605565235640148E-15</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="Q15" s="57">
         <v>7.8604718463032212E-21</v>
       </c>
-      <c r="R15" s="59">
+      <c r="R15" s="57">
         <v>3.6411440839079285E-27</v>
       </c>
-      <c r="S15" s="59">
+      <c r="S15" s="57">
         <v>0</v>
       </c>
-      <c r="T15" s="59"/>
-      <c r="U15" s="63"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="61"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A16" s="60">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
         <f t="shared" si="1"/>
         <v>43862</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="57">
         <v>6.0772442059560197</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="57">
         <v>0.69942133378051674</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="57">
         <v>0</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="57">
         <v>2.0576031286140577E-12</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="57">
         <v>2.3820931518049579E-8</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="57">
         <v>3.5708648048792042E-5</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="57">
         <v>6.9311550387601466E-3</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="57">
         <v>0.17420289067423322</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="57">
         <v>0.56692112394520733</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="57">
         <v>0.23889521988304288</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="57">
         <v>1.3034963478242996E-2</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="57">
         <v>9.2093656317986477E-5</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="57">
         <v>8.4249464883833013E-8</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="57">
         <v>9.9798065916400302E-12</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="57">
         <v>1.530716052742806E-16</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="57">
         <v>3.0400777228299318E-22</v>
       </c>
-      <c r="R16" s="59">
+      <c r="R16" s="57">
         <v>7.8179389639934879E-29</v>
       </c>
-      <c r="S16" s="59">
+      <c r="S16" s="57">
         <v>0</v>
       </c>
-      <c r="T16" s="59"/>
-      <c r="U16" s="63" t="s">
+      <c r="T16" s="57"/>
+      <c r="U16" s="61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="60">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
         <f t="shared" si="1"/>
         <v>43891</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="57">
         <v>5.784164454321397</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="57">
         <v>0.60298250100286621</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="57">
         <v>0</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="57">
         <v>1.4156787141605543E-14</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>1.8546692020494662E-9</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="57">
         <v>1.5527416014643424E-5</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="57">
         <v>8.3073572627436875E-3</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="57">
         <v>0.28402564677484049</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="57">
         <v>0.62055916984694803</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="57">
         <v>8.6644262193736499E-2</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="57">
         <v>7.7308525273107583E-4</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="57">
         <v>4.4080441957674348E-7</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="57">
         <v>1.6061846162629256E-11</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="57">
         <v>3.7400374789039336E-17</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="57">
         <v>5.5652850952926323E-24</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="57">
         <v>5.292122033665725E-32</v>
       </c>
-      <c r="R17" s="59">
+      <c r="R17" s="57">
         <v>3.2159053183957506E-41</v>
       </c>
-      <c r="S17" s="59">
+      <c r="S17" s="57">
         <v>0</v>
       </c>
-      <c r="T17" s="59"/>
-      <c r="U17" s="63"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="61"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="60">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
         <f t="shared" si="1"/>
         <v>43922</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="57">
         <v>4.7979819512989543</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="57">
         <v>0.8</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="57">
         <v>0</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="57">
         <v>6.3626474634813203E-6</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>1.1005236131510368E-3</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="57">
         <v>3.9900261485940142E-2</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="57">
         <v>0.30322638638314947</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="57">
         <v>0.48302889467934573</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="57">
         <v>0.16128504640717628</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="57">
         <v>1.1288337047493454E-2</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="57">
         <v>1.6560776830609801E-4</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="57">
         <v>5.092679125175383E-7</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="57">
         <v>3.2826667339064114E-10</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="57">
         <v>4.4352912818114456E-14</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="57">
         <v>1.2561235894627682E-18</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="57">
         <v>7.4568853925039049E-24</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="57">
         <v>9.2789201436519378E-30</v>
       </c>
-      <c r="S18" s="59">
+      <c r="S18" s="57">
         <v>0</v>
       </c>
-      <c r="T18" s="59"/>
-      <c r="U18" s="63" t="s">
+      <c r="T18" s="57"/>
+      <c r="U18" s="61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="60">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
         <f t="shared" si="1"/>
         <v>43952</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="57">
         <v>4.3365845760730783</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="57">
         <v>1.0926224296065652</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="57">
         <v>0</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="57">
         <v>3.447235905921157E-3</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>3.710020098633969E-2</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="57">
         <v>0.17278144672476756</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="57">
         <v>0.34820382366825853</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="57">
         <v>0.30365857637480442</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="57">
         <v>0.11459169764013326</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="57">
         <v>1.8712695093961389E-2</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="57">
         <v>1.3223155802228441E-3</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="57">
         <v>4.0434257723163807E-5</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="57">
         <v>5.3503158488094261E-7</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="57">
         <v>3.0635498578716759E-9</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="57">
         <v>7.5907741609093999E-12</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="57">
         <v>8.138844941195642E-15</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="57">
         <v>3.7762006657162358E-18</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="57">
         <v>0</v>
       </c>
-      <c r="T19" s="59"/>
-      <c r="U19" s="63"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="61"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="60">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="57">
         <v>3.7689672285237954</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="57">
         <v>0.97075213602432642</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="57">
         <v>0</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <v>7.0316830614689275E-3</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>7.8114583285817565E-2</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="57">
         <v>0.30029386063787711</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="57">
         <v>0.39948666476968442</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="57">
         <v>0.18390757612050593</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="57">
         <v>2.9298032373966856E-2</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="57">
         <v>1.6151720436529318E-3</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="57">
         <v>3.0813471094235153E-5</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="57">
         <v>2.0342482864362751E-7</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N20" s="57">
         <v>4.6473865234100662E-10</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="57">
         <v>3.6741351723120608E-13</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P20" s="57">
         <v>1.0051779801452457E-16</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="57">
         <v>9.516391549122547E-21</v>
       </c>
-      <c r="R20" s="59">
+      <c r="R20" s="57">
         <v>3.1177632921624456E-25</v>
       </c>
-      <c r="S20" s="59">
+      <c r="S20" s="57">
         <v>0</v>
       </c>
-      <c r="T20" s="59"/>
-      <c r="U20" s="63" t="s">
+      <c r="T20" s="57"/>
+      <c r="U20" s="61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="60">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
         <f t="shared" si="1"/>
         <v>44013</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="57">
         <v>4.2496946536164657</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="57">
         <v>1.7065163595185497</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="57">
         <v>0</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="57">
         <v>3.8137982756950586E-2</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>9.8043352587077817E-2</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="57">
         <v>0.1787924373090666</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="57">
         <v>0.23128671710690307</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="57">
         <v>0.21223782901138794</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="57">
         <v>0.13815463289352217</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="57">
         <v>6.37938286518277E-2</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="57">
         <v>2.0895965267485571E-2</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="57">
         <v>4.8553077627132082E-3</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="57">
         <v>8.0027941392998923E-4</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="57">
         <v>9.3570097700702997E-5</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="57">
         <v>7.7607389687331782E-6</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="57">
         <v>4.5660390917977839E-7</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="57">
         <v>1.905665757203259E-8</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="57">
         <v>0</v>
       </c>
-      <c r="T21" s="59"/>
-      <c r="U21" s="63"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="61"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="60">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="57">
         <v>6.0756975685714343</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="57">
         <v>2.4571291189922899</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="57">
         <v>0</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="57">
         <v>1.9225929392134203E-2</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="57">
         <v>4.1023351029342695E-2</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="57">
         <v>7.4172325151765084E-2</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="57">
         <v>0.11363696438847409</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="57">
         <v>0.14752455869701886</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="57">
         <v>0.16228410869705853</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="57">
         <v>0.15127063678742994</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="57">
         <v>0.11948138430081649</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M22" s="57">
         <v>7.9967372445051907E-2</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="57">
         <v>4.535157529446085E-2</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="57">
         <v>2.1794097912462364E-2</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="57">
         <v>8.8746735855514784E-3</v>
       </c>
-      <c r="Q22" s="59">
+      <c r="Q22" s="57">
         <v>3.0621950443917322E-3</v>
       </c>
-      <c r="R22" s="59">
+      <c r="R22" s="57">
         <v>8.9532411116297506E-4</v>
       </c>
-      <c r="S22" s="59">
+      <c r="S22" s="57">
         <v>0</v>
       </c>
-      <c r="T22" s="59"/>
-      <c r="U22" s="63" t="s">
+      <c r="T22" s="57"/>
+      <c r="U22" s="61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="60">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <f t="shared" si="1"/>
         <v>44075</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="57">
         <v>6.288979853620563</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="57">
         <v>1.5576496000573881</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="57">
         <v>0</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="57">
         <v>8.0329827130107972E-4</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="57">
         <v>5.7821310588217706E-3</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="57">
         <v>2.7561473529718567E-2</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="57">
         <v>8.7000217181506925E-2</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="57">
         <v>0.181861866224273</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="57">
         <v>0.25174818759433409</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="57">
         <v>0.23077803143261555</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="57">
         <v>0.14009607848075731</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="57">
         <v>5.631977301762843E-2</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="57">
         <v>1.4993368513317193E-2</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="57">
         <v>2.643266412846481E-3</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="57">
         <v>3.0859299418835594E-4</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="57">
         <v>2.3858030509882097E-5</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="57">
         <v>1.2214804475685622E-6</v>
       </c>
-      <c r="S23" s="59">
+      <c r="S23" s="57">
         <v>0</v>
       </c>
-      <c r="T23" s="59"/>
-      <c r="U23" s="63"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="61"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="60">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
         <f t="shared" si="1"/>
         <v>44105</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="57">
         <v>7.4830251797039304</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="57">
         <v>1.5174137408279171</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="57">
         <v>0</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <v>2.8582325335425963E-5</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <v>3.8422534064048671E-4</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="57">
         <v>3.3454876037232236E-3</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="57">
         <v>1.8867650388959593E-2</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="57">
         <v>6.892252669541965E-2</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="57">
         <v>0.16307580643698186</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="57">
         <v>0.2499210599296626</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="57">
         <v>0.24808536653648036</v>
       </c>
-      <c r="M24" s="59">
+      <c r="M24" s="57">
         <v>0.15950871499934013</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="57">
         <v>6.6428226754554245E-2</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="57">
         <v>1.7918674367684979E-2</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="57">
         <v>3.1307188601840358E-3</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="Q24" s="57">
         <v>3.5429680547839127E-4</v>
       </c>
-      <c r="R24" s="59">
+      <c r="R24" s="57">
         <v>2.5970205019254829E-5</v>
       </c>
-      <c r="S24" s="59">
+      <c r="S24" s="57">
         <v>0</v>
       </c>
-      <c r="T24" s="59"/>
-      <c r="U24" s="63" t="s">
+      <c r="T24" s="57"/>
+      <c r="U24" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="60">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
         <f t="shared" si="1"/>
         <v>44136</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="57">
         <v>7.8924293803453685</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="57">
         <v>3.7537423696657122</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="57">
         <v>0</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="57">
         <v>1.9694557176536683E-2</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <v>3.1000679661126986E-2</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="57">
         <v>4.545426042796584E-2</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="57">
         <v>6.2080665184958521E-2</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="57">
         <v>7.8979887866243381E-2</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="57">
         <v>9.3595517363892183E-2</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="57">
         <v>0.10331704375534559</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="57">
         <v>0.10623491584717376</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>0.10175153525300712</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="57">
         <v>9.0780599936480383E-2</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="57">
         <v>7.5443792457212486E-2</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="57">
         <v>5.8402623999030283E-2</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="Q25" s="57">
         <v>4.2113331022740952E-2</v>
       </c>
-      <c r="R25" s="59">
+      <c r="R25" s="57">
         <v>2.8286890754289938E-2</v>
       </c>
-      <c r="S25" s="59">
+      <c r="S25" s="57">
         <v>0</v>
       </c>
-      <c r="T25" s="59"/>
-      <c r="U25" s="63"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="61"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="60">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
         <f t="shared" si="1"/>
         <v>44166</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="57">
         <v>7.9430505603682722</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="57">
         <v>3.952740479097129</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="57">
         <v>0</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="57">
         <v>2.1579288293512626E-2</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="57">
         <v>3.2593453523343391E-2</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="57">
         <v>4.6177168184826076E-2</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="57">
         <v>6.1366007229077507E-2</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="57">
         <v>7.6494831357992954E-2</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="57">
         <v>8.9441684550156345E-2</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="57">
         <v>9.8096046081849297E-2</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="57">
         <v>0.10091754790008972</v>
       </c>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>9.7383533846761489E-2</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="57">
         <v>8.8147099200422921E-2</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="57">
         <v>7.4840068020099224E-2</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="57">
         <v>5.9602431361150468E-2</v>
       </c>
-      <c r="Q26" s="59">
+      <c r="Q26" s="57">
         <v>4.452433410771503E-2</v>
       </c>
-      <c r="R26" s="59">
+      <c r="R26" s="57">
         <v>3.1198559609690514E-2</v>
       </c>
-      <c r="S26" s="59">
+      <c r="S26" s="57">
         <v>0</v>
       </c>
-      <c r="T26" s="59"/>
-      <c r="U26" s="63" t="s">
+      <c r="T26" s="57"/>
+      <c r="U26" s="61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="60">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
         <f t="shared" si="1"/>
         <v>44197</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="57">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="57">
         <v>3.6483276705913052</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="57">
         <v>0</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="57">
         <v>5.3951737741895281E-3</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="57">
         <v>1.0179254274813313E-2</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="57">
         <v>1.7815500348448639E-2</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="57">
         <v>2.8923551623937518E-2</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="57">
         <v>4.3558884792030649E-2</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="57">
         <v>6.08517986497282E-2</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="57">
         <v>7.8857249004989097E-2</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="57">
         <v>9.4794111537742962E-2</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="57">
         <v>0.10570429501905658</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="57">
         <v>0.1093390870016784</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="57">
         <v>0.1049131163712602</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="57">
         <v>9.3380386592844367E-2</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="Q27" s="57">
         <v>7.7099770080313226E-2</v>
       </c>
-      <c r="R27" s="59">
+      <c r="R27" s="57">
         <v>5.9050289857005812E-2</v>
       </c>
-      <c r="S27" s="59">
+      <c r="S27" s="57">
         <v>0</v>
       </c>
-      <c r="T27" s="59"/>
-      <c r="U27" s="63"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="60">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="58">
         <f t="shared" ref="A28:A60" si="2">EOMONTH(A27,0)+1</f>
         <v>44228</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="57">
         <v>9.42</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="57">
         <v>3.4275817041245622</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="57">
         <v>0</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="57">
         <v>5.6954142907999945E-3</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <v>1.1176356179548796E-2</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="57">
         <v>2.0142279480904367E-2</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="57">
         <v>3.3338839016731084E-2</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="57">
         <v>5.0678738621138864E-2</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="57">
         <v>7.0751327406945633E-2</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="57">
         <v>9.0714530735868826E-2</v>
       </c>
-      <c r="L28" s="59">
+      <c r="L28" s="57">
         <v>0.10682000522073927</v>
       </c>
-      <c r="M28" s="59">
+      <c r="M28" s="57">
         <v>0.11552122936098701</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="57">
         <v>0.11473726136300406</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="57">
         <v>0.10465997527155485</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="57">
         <v>8.7677921640343104E-2</v>
       </c>
-      <c r="Q28" s="59">
+      <c r="Q28" s="57">
         <v>6.7457980550759203E-2</v>
       </c>
-      <c r="R28" s="59">
+      <c r="R28" s="57">
         <v>4.7666130282319592E-2</v>
       </c>
-      <c r="S28" s="59">
+      <c r="S28" s="57">
         <v>0</v>
       </c>
-      <c r="T28" s="59"/>
-      <c r="U28" s="63" t="s">
+      <c r="T28" s="57"/>
+      <c r="U28" s="61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="60">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
         <f t="shared" si="2"/>
         <v>44256</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="57">
         <v>9.1882894165280238</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="57">
         <v>2.8935145404390012</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="57">
         <v>0</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="57">
         <v>2.5149269900866171E-3</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="57">
         <v>6.2998805047214832E-3</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="57">
         <v>1.400448828000187E-2</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="57">
         <v>2.7626774282631723E-2</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="57">
         <v>4.8363877978147542E-2</v>
       </c>
-      <c r="J29" s="59">
+      <c r="J29" s="57">
         <v>7.5134613472253697E-2</v>
       </c>
-      <c r="K29" s="59">
+      <c r="K29" s="57">
         <v>0.10358264549910293</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="57">
         <v>0.12672489593539327</v>
       </c>
-      <c r="M29" s="59">
+      <c r="M29" s="57">
         <v>0.13758303649654233</v>
       </c>
-      <c r="N29" s="59">
+      <c r="N29" s="57">
         <v>0.13255491622793356</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="57">
         <v>0.11333258412688337</v>
       </c>
-      <c r="P29" s="59">
+      <c r="P29" s="57">
         <v>8.5988771732105729E-2</v>
       </c>
-      <c r="Q29" s="59">
+      <c r="Q29" s="57">
         <v>5.7897085484578149E-2</v>
       </c>
-      <c r="R29" s="59">
+      <c r="R29" s="57">
         <v>3.4593910782272919E-2</v>
       </c>
-      <c r="S29" s="59">
+      <c r="S29" s="57">
         <v>0</v>
       </c>
-      <c r="T29" s="59"/>
-      <c r="U29" s="63"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="61"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" s="60">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="58">
         <f t="shared" si="2"/>
         <v>44287</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="57">
         <v>8.0608062426651426</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="57">
         <v>2.2566250593564989</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="57">
         <v>0</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="57">
         <v>1.3229532510202445E-3</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="57">
         <v>4.798147992849079E-3</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="57">
         <v>1.4299445127790375E-2</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="57">
         <v>3.5017177464456387E-2</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="57">
         <v>7.0462734628257959E-2</v>
       </c>
-      <c r="J30" s="59">
+      <c r="J30" s="57">
         <v>0.11650759995969893</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="57">
         <v>0.15829435337433359</v>
       </c>
-      <c r="L30" s="59">
+      <c r="L30" s="57">
         <v>0.17672296748911764</v>
       </c>
-      <c r="M30" s="59">
+      <c r="M30" s="57">
         <v>0.16212014109732498</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="57">
         <v>0.1222073581687303</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="57">
         <v>7.5696211425030982E-2</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="57">
         <v>3.8527190191641941E-2</v>
       </c>
-      <c r="Q30" s="59">
+      <c r="Q30" s="57">
         <v>1.6113019591628482E-2</v>
       </c>
-      <c r="R30" s="59">
+      <c r="R30" s="57">
         <v>5.5373622881278025E-3</v>
       </c>
-      <c r="S30" s="59">
+      <c r="S30" s="57">
         <v>0</v>
       </c>
-      <c r="T30" s="59"/>
-      <c r="U30" s="63" t="s">
+      <c r="T30" s="57"/>
+      <c r="U30" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="60">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
         <f t="shared" si="2"/>
         <v>44317</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="57">
         <v>7.0466846646398009</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="57">
         <v>1.2</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="57">
         <v>0</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="57">
         <v>1.0191554312678834E-6</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="57">
         <v>4.7982608684960314E-5</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="57">
         <v>1.1280644107889513E-3</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="57">
         <v>1.3243127183991933E-2</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="57">
         <v>7.7634330435337531E-2</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="57">
         <v>0.22726035635576194</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="57">
         <v>0.33220041046148646</v>
       </c>
-      <c r="L31" s="59">
+      <c r="L31" s="57">
         <v>0.24248409401643878</v>
       </c>
-      <c r="M31" s="59">
+      <c r="M31" s="57">
         <v>8.8383858416713354E-2</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="57">
         <v>1.6086785374393366E-2</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="57">
         <v>1.4620835408915656E-3</v>
       </c>
-      <c r="P31" s="59">
+      <c r="P31" s="57">
         <v>6.6356232243734985E-5</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="Q31" s="57">
         <v>1.5038269329734551E-6</v>
       </c>
-      <c r="R31" s="59">
+      <c r="R31" s="57">
         <v>1.7018473726634671E-8</v>
       </c>
-      <c r="S31" s="59">
+      <c r="S31" s="57">
         <v>0</v>
       </c>
-      <c r="T31" s="59"/>
-      <c r="U31" s="63"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="61"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A32" s="60">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
         <f t="shared" si="2"/>
         <v>44348</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="57">
         <v>6.6203305236776693</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="57">
         <v>0.65896225824672572</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="57">
         <v>0</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="57">
         <v>9.6759209283552385E-17</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="57">
         <v>1.2786990864616285E-11</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="57">
         <v>1.6892689483991983E-7</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="57">
         <v>2.2309181827436609E-4</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="57">
         <v>2.9452548996266228E-2</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="57">
         <v>0.38870178145082834</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="57">
         <v>0.51281955189560702</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="57">
         <v>6.7634302965814103E-2</v>
       </c>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>8.9171046236594131E-4</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="57">
         <v>1.1752631136261252E-6</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="57">
         <v>1.5484627030718553E-10</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="57">
         <v>2.0394863011486905E-15</v>
       </c>
-      <c r="Q32" s="59">
+      <c r="Q32" s="57">
         <v>2.6853149880773946E-21</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="57">
         <v>3.534468203585902E-28</v>
       </c>
-      <c r="S32" s="59">
+      <c r="S32" s="57">
         <v>0</v>
       </c>
-      <c r="T32" s="59"/>
-      <c r="U32" s="63" t="s">
+      <c r="T32" s="57"/>
+      <c r="U32" s="61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A33" s="60">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
         <f t="shared" si="2"/>
         <v>44378</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="57">
         <v>6.7011722834119318</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="57">
         <v>0.61251523382188655</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="57">
         <v>0</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="57">
         <v>1.0027476099694326E-19</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="57">
         <v>1.0518597135918926E-13</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="57">
         <v>7.6761830135879611E-9</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="57">
         <v>3.8972129004509432E-5</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="57">
         <v>1.3765254798591593E-2</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="57">
         <v>0.338248352722409</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="57">
         <v>0.57824040902564056</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="57">
         <v>6.8770550085769849E-2</v>
       </c>
-      <c r="M33" s="59">
+      <c r="M33" s="57">
         <v>5.6900734256875164E-4</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="57">
         <v>3.2753261708505808E-7</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="57">
         <v>1.3116336572675479E-11</v>
       </c>
-      <c r="P33" s="59">
+      <c r="P33" s="57">
         <v>3.6541962004125267E-17</v>
       </c>
-      <c r="Q33" s="59">
+      <c r="Q33" s="57">
         <v>7.0825962201441412E-24</v>
       </c>
-      <c r="R33" s="59">
+      <c r="R33" s="57">
         <v>9.5502428931707729E-32</v>
       </c>
-      <c r="S33" s="59">
+      <c r="S33" s="57">
         <v>0</v>
       </c>
-      <c r="T33" s="59"/>
+      <c r="T33" s="57"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A34" s="60">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
         <f t="shared" si="2"/>
         <v>44409</v>
       </c>
-      <c r="B34" s="59">
+      <c r="B34" s="57">
         <v>7.8764364138194534</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="57">
         <v>2.1714916927780599</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="57">
         <v>0</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="57">
         <v>1.2207267157534796E-3</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="57">
         <v>4.7195383138863324E-3</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="57">
         <v>1.4759743662403737E-2</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="57">
         <v>3.7338455201209486E-2</v>
       </c>
-      <c r="I34" s="59">
+      <c r="I34" s="57">
         <v>7.6406817184163672E-2</v>
       </c>
-      <c r="J34" s="59">
+      <c r="J34" s="57">
         <v>0.12647541237634469</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="57">
         <v>0.16934732122887486</v>
       </c>
-      <c r="L34" s="59">
+      <c r="L34" s="57">
         <v>0.18342088750474478</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="57">
         <v>0.16070059390372352</v>
       </c>
-      <c r="N34" s="59">
+      <c r="N34" s="57">
         <v>0.11388968851047344</v>
       </c>
-      <c r="O34" s="59">
+      <c r="O34" s="57">
         <v>6.5290434768048647E-2</v>
       </c>
-      <c r="P34" s="59">
+      <c r="P34" s="57">
         <v>3.0277007474874579E-2</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="57">
         <v>1.135728613744387E-2</v>
       </c>
-      <c r="R34" s="59">
+      <c r="R34" s="57">
         <v>3.4461519221997412E-3</v>
       </c>
-      <c r="S34" s="59">
+      <c r="S34" s="57">
         <v>0</v>
       </c>
-      <c r="T34" s="59"/>
+      <c r="T34" s="57"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A35" s="60">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="58">
         <f t="shared" si="2"/>
         <v>44440</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="57">
         <v>8.381590776275246</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="57">
         <v>2.2585606791836788</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="57">
         <v>0</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="57">
         <v>8.4644322965664234E-4</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="57">
         <v>3.2619637075128865E-3</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="57">
         <v>1.0332916862556612E-2</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="57">
         <v>2.6904768937156705E-2</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="57">
         <v>5.7583508075201364E-2</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="57">
         <v>0.10130467625905668</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="57">
         <v>0.14649519761110863</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="57">
         <v>0.17413248749913016</v>
       </c>
-      <c r="M35" s="59">
+      <c r="M35" s="57">
         <v>0.17013698845677844</v>
       </c>
-      <c r="N35" s="59">
+      <c r="N35" s="57">
         <v>0.13664073818951147</v>
       </c>
-      <c r="O35" s="59">
+      <c r="O35" s="57">
         <v>9.0203664106294157E-2</v>
       </c>
-      <c r="P35" s="59">
+      <c r="P35" s="57">
         <v>4.8947518563470988E-2</v>
       </c>
-      <c r="Q35" s="59">
+      <c r="Q35" s="57">
         <v>2.183231061639104E-2</v>
       </c>
-      <c r="R35" s="59">
+      <c r="R35" s="57">
         <v>8.0044453627393427E-3</v>
       </c>
-      <c r="S35" s="59">
+      <c r="S35" s="57">
         <v>0</v>
       </c>
-      <c r="T35" s="59"/>
+      <c r="T35" s="57"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A36" s="60">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="58">
         <f t="shared" si="2"/>
         <v>44470</v>
       </c>
-      <c r="B36" s="59">
+      <c r="B36" s="57">
         <v>8.4708662224907698</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="57">
         <v>2.6927310589373348</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="57">
         <v>0</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="57">
         <v>3.156473122509394E-3</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="57">
         <v>8.2552382209293475E-3</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="57">
         <v>1.8808798393693624E-2</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="57">
         <v>3.7333303357423971E-2</v>
       </c>
-      <c r="I36" s="59">
+      <c r="I36" s="57">
         <v>6.4555866342749374E-2</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="57">
         <v>9.724760959650075E-2</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="57">
         <v>0.12762215763921037</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="57">
         <v>0.14590734577365561</v>
       </c>
-      <c r="M36" s="59">
+      <c r="M36" s="57">
         <v>0.14532226505010751</v>
       </c>
-      <c r="N36" s="59">
+      <c r="N36" s="57">
         <v>0.12609303151403964</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="57">
         <v>9.531339531561997E-2</v>
       </c>
-      <c r="P36" s="59">
+      <c r="P36" s="57">
         <v>6.276546080492891E-2</v>
       </c>
-      <c r="Q36" s="59">
+      <c r="Q36" s="57">
         <v>3.6007372319337587E-2</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="57">
         <v>1.7995588916492264E-2</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="57">
         <v>0</v>
       </c>
-      <c r="T36" s="59"/>
+      <c r="T36" s="57"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A37" s="60">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="58">
         <f t="shared" si="2"/>
         <v>44501</v>
       </c>
-      <c r="B37" s="59">
+      <c r="B37" s="57">
         <v>8.4799324245644208</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="57">
         <v>3.2774574528253257</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="57">
         <v>0</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="57">
         <v>9.0020064255705145E-3</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <v>1.7240195027579095E-2</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="57">
         <v>3.008253497148014E-2</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="57">
         <v>4.7825121946976905E-2</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="57">
         <v>6.9273501800628148E-2</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J37" s="57">
         <v>9.1421343191347468E-2</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K37" s="57">
         <v>0.10992524788947861</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="57">
         <v>0.1204250151254882</v>
       </c>
-      <c r="M37" s="59">
+      <c r="M37" s="57">
         <v>0.12020024847181568</v>
       </c>
-      <c r="N37" s="59">
+      <c r="N37" s="57">
         <v>0.10931088773655338</v>
       </c>
-      <c r="O37" s="59">
+      <c r="O37" s="57">
         <v>9.0571357529180718E-2</v>
       </c>
-      <c r="P37" s="59">
+      <c r="P37" s="57">
         <v>6.8373487621733495E-2</v>
       </c>
-      <c r="Q37" s="59">
+      <c r="Q37" s="57">
         <v>4.7027727068667396E-2</v>
       </c>
-      <c r="R37" s="59">
+      <c r="R37" s="57">
         <v>2.947064526992554E-2</v>
       </c>
-      <c r="S37" s="59">
+      <c r="S37" s="57">
         <v>0</v>
       </c>
-      <c r="T37" s="59"/>
+      <c r="T37" s="57"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A38" s="60">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="58">
         <f t="shared" si="2"/>
         <v>44531</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="57">
         <v>9.3093432561537011</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="57">
         <v>3.8163673201403627</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="57">
         <v>0</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="57">
         <v>9.7690487582726259E-3</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="57">
         <v>1.6699912832077442E-2</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="57">
         <v>2.665371540175349E-2</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="57">
         <v>3.9717594076288124E-2</v>
       </c>
-      <c r="I38" s="59">
+      <c r="I38" s="57">
         <v>5.5257309413504534E-2</v>
       </c>
-      <c r="J38" s="59">
+      <c r="J38" s="57">
         <v>7.1775819677024885E-2</v>
       </c>
-      <c r="K38" s="59">
+      <c r="K38" s="57">
         <v>8.7045878363304227E-2</v>
       </c>
-      <c r="L38" s="59">
+      <c r="L38" s="57">
         <v>9.855981691033279E-2</v>
       </c>
-      <c r="M38" s="59">
+      <c r="M38" s="57">
         <v>0.10419171555540561</v>
       </c>
-      <c r="N38" s="59">
+      <c r="N38" s="57">
         <v>0.10283669592305514</v>
       </c>
-      <c r="O38" s="59">
+      <c r="O38" s="57">
         <v>9.4764279526400388E-2</v>
       </c>
-      <c r="P38" s="59">
+      <c r="P38" s="57">
         <v>8.1531013393016591E-2</v>
       </c>
-      <c r="Q38" s="59">
+      <c r="Q38" s="57">
         <v>6.5491153627893123E-2</v>
       </c>
-      <c r="R38" s="59">
+      <c r="R38" s="57">
         <v>4.9116121564504629E-2</v>
       </c>
-      <c r="S38" s="59">
+      <c r="S38" s="57">
         <v>0</v>
       </c>
-      <c r="T38" s="59"/>
+      <c r="T38" s="57"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A39" s="60">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="58">
         <f t="shared" si="2"/>
         <v>44562</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A40" s="60">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="58">
         <f t="shared" si="2"/>
         <v>44593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A41" s="60">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="58">
         <f t="shared" si="2"/>
         <v>44621</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A42" s="60">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
         <f t="shared" si="2"/>
         <v>44652</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A43" s="60">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <f t="shared" si="2"/>
         <v>44682</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A44" s="60">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="58">
         <f t="shared" si="2"/>
         <v>44713</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A45" s="60">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="58">
         <f t="shared" si="2"/>
         <v>44743</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A46" s="60">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="58">
         <f t="shared" si="2"/>
         <v>44774</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A47" s="60">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="58">
         <f t="shared" si="2"/>
         <v>44805</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A48" s="60">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="58">
         <f t="shared" si="2"/>
         <v>44835</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="60">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="58">
         <f t="shared" si="2"/>
         <v>44866</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="60">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58">
         <f t="shared" si="2"/>
         <v>44896</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="60">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58">
         <f t="shared" si="2"/>
         <v>44927</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="60">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58">
         <f t="shared" si="2"/>
         <v>44958</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="60">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
         <f t="shared" si="2"/>
         <v>44986</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="60">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="58">
         <f t="shared" si="2"/>
         <v>45017</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="60">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58">
         <f t="shared" si="2"/>
         <v>45047</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="60">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58">
         <f t="shared" si="2"/>
         <v>45078</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="60">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58">
         <f t="shared" si="2"/>
         <v>45108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="60">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58">
         <f t="shared" si="2"/>
         <v>45139</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="60">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58">
         <f t="shared" si="2"/>
         <v>45170</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58">
         <f t="shared" si="2"/>
         <v>45200</v>
       </c>
@@ -27589,1165 +27323,1164 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B1" s="66">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="64">
         <v>44197</v>
       </c>
-      <c r="C1" s="66">
+      <c r="C1" s="64">
         <f t="shared" ref="C1:M1" si="0">EOMONTH(B1,0)+1</f>
         <v>44228</v>
       </c>
-      <c r="D1" s="66">
+      <c r="D1" s="64">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="E1" s="66">
+      <c r="E1" s="64">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F1" s="64">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="G1" s="66">
+      <c r="G1" s="64">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="H1" s="66">
+      <c r="H1" s="64">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
-      <c r="I1" s="66">
+      <c r="I1" s="64">
         <f t="shared" si="0"/>
         <v>44409</v>
       </c>
-      <c r="J1" s="66">
+      <c r="J1" s="64">
         <f t="shared" si="0"/>
         <v>44440</v>
       </c>
-      <c r="K1" s="66">
+      <c r="K1" s="64">
         <f t="shared" si="0"/>
         <v>44470</v>
       </c>
-      <c r="L1" s="66">
+      <c r="L1" s="64">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
-      <c r="M1" s="66">
+      <c r="M1" s="64">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="60">
         <v>1243</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="60">
         <v>1385</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="60">
         <v>1557</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="60">
         <v>1666</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="60">
         <v>1687</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="60">
         <v>1700</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="60">
         <v>1831</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="60">
         <v>1965</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="60">
         <v>2077</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="60">
         <v>2212</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="60">
         <v>2220</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="60">
         <v>2350</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="60">
         <v>-800</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="60">
         <f ca="1">C8-B8-400</f>
-        <v>-698.31999999999994</v>
-      </c>
-      <c r="D3" s="62">
+        <v>-673.45999999999992</v>
+      </c>
+      <c r="D3" s="60">
         <f ca="1">SUM(D8-C8,C9-B9)-RANDBETWEEN(300,500)</f>
-        <v>-981.97640000000001</v>
-      </c>
-      <c r="E3" s="62">
+        <v>-814.03100000000018</v>
+      </c>
+      <c r="E3" s="60">
         <f ca="1">SUM(E8-D8,D9-C9,C10-B10)</f>
-        <v>-791.05747599999995</v>
-      </c>
-      <c r="F3" s="62">
+        <v>-940.30868999999984</v>
+      </c>
+      <c r="F3" s="60">
         <f t="shared" ref="F3" ca="1" si="1">SUM(F8-E8,E9-D9,D10-C10,C11-B11)</f>
-        <v>-985.32058727999993</v>
-      </c>
-      <c r="G3" s="62">
+        <v>-1192.8846794999999</v>
+      </c>
+      <c r="G3" s="60">
         <f t="shared" ref="G3" ca="1" si="2">SUM(G8-F8,F9-E9,E10-D10,D11-C11,C12-B12)</f>
-        <v>-1679.8662862584001</v>
-      </c>
-      <c r="H3" s="62">
+        <v>-1558.1392143449996</v>
+      </c>
+      <c r="H3" s="60">
         <f t="shared" ref="H3" ca="1" si="3">SUM(H8-G8,G9-F9,F10-E10,E11-D11,D12-C12,C13-B13)</f>
-        <v>-1385.24899051848</v>
-      </c>
-      <c r="I3" s="62">
+        <v>-1597.6110798721002</v>
+      </c>
+      <c r="I3" s="60">
         <f t="shared" ref="I3" ca="1" si="4">SUM(I8-H8,H9-G9,G10-F10,F11-E11,E12-D12,D13-C13,C14-B14)</f>
-        <v>-1680.5296043980111</v>
-      </c>
-      <c r="J3" s="62">
+        <v>-1391.226309275085</v>
+      </c>
+      <c r="J3" s="60">
         <f t="shared" ref="J3" ca="1" si="5">SUM(J8-I8,I9-H9,H10-G10,G11-F11,F12-E12,E13-D13,D14-C14,C15-B15)</f>
-        <v>-1612.5631162849836</v>
-      </c>
-      <c r="K3" s="62">
+        <v>-1765.1982117242355</v>
+      </c>
+      <c r="K3" s="60">
         <f t="shared" ref="K3" ca="1" si="6">SUM(K8-J8,J9-I9,I10-H10,H11-G11,G12-F12,F13-E13,E14-D14,D15-C15,C16-B16)</f>
-        <v>-1474.7154875383865</v>
-      </c>
-      <c r="L3" s="62">
+        <v>-2027.6113359501803</v>
+      </c>
+      <c r="L3" s="60">
         <f t="shared" ref="L3" ca="1" si="7">SUM(L8-K8,K9-J9,J10-I10,I11-H11,H12-G12,G13-F13,F14-E14,E15-D15,D16-C16,C17-B17)</f>
-        <v>-2335.8860406504573</v>
-      </c>
-      <c r="M3" s="62">
+        <v>-2038.3181793639151</v>
+      </c>
+      <c r="M3" s="60">
         <f ca="1">SUM(M8-L8,L9-K9,K10-J10,J11-I11,I12-H12,H13-G13,G14-F14,F15-E15,E16-D16,D17-C17,C18-B18)</f>
-        <v>-2176.729404091252</v>
+        <v>-1906.3808535750543</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="60">
         <f t="shared" ref="B4:M4" si="8">B2+B3</f>
         <v>443</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>686.68000000000006</v>
-      </c>
-      <c r="D4" s="62">
+        <v>711.54000000000008</v>
+      </c>
+      <c r="D4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>575.02359999999999</v>
-      </c>
-      <c r="E4" s="62">
+        <v>742.96899999999982</v>
+      </c>
+      <c r="E4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>874.94252400000005</v>
-      </c>
-      <c r="F4" s="62">
+        <v>725.69131000000016</v>
+      </c>
+      <c r="F4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>701.67941272000007</v>
-      </c>
-      <c r="G4" s="62">
+        <v>494.11532050000005</v>
+      </c>
+      <c r="G4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>20.133713741599877</v>
-      </c>
-      <c r="H4" s="62">
+        <v>141.86078565500043</v>
+      </c>
+      <c r="H4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>445.75100948151999</v>
-      </c>
-      <c r="I4" s="62">
+        <v>233.38892012789984</v>
+      </c>
+      <c r="I4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>284.47039560198891</v>
-      </c>
-      <c r="J4" s="62">
+        <v>573.77369072491501</v>
+      </c>
+      <c r="J4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>464.43688371501639</v>
-      </c>
-      <c r="K4" s="62">
+        <v>311.80178827576447</v>
+      </c>
+      <c r="K4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>737.28451246161353</v>
-      </c>
-      <c r="L4" s="62">
+        <v>184.38866404981968</v>
+      </c>
+      <c r="L4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>-115.88604065045729</v>
-      </c>
-      <c r="M4" s="62">
+        <v>181.68182063608492</v>
+      </c>
+      <c r="M4" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>173.27059590874796</v>
+        <v>443.61914642494571</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="65">
         <v>0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="65">
         <v>2</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="65">
         <v>3</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="65">
         <v>4</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="65">
         <v>5</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="65">
         <v>6</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="65">
         <v>7</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="65">
         <v>8</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="65">
         <v>9</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="65">
         <v>10</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="65">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="66">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
         <v>44197</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="60">
         <f t="shared" ref="B8:B19" ca="1" si="9">OFFSET($A$2,0,MONTH(A8))</f>
         <v>1243</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="60">
         <f t="shared" ref="C8:C18" ca="1" si="10">B8*(RANDBETWEEN(75,85)/100)</f>
-        <v>944.68000000000006</v>
-      </c>
-      <c r="D8" s="62">
+        <v>969.54000000000008</v>
+      </c>
+      <c r="D8" s="60">
         <f t="shared" ref="D8:D17" ca="1" si="11">C8*(RANDBETWEEN(75,85)/100)</f>
-        <v>727.4036000000001</v>
-      </c>
-      <c r="E8" s="62">
+        <v>824.10900000000004</v>
+      </c>
+      <c r="E8" s="60">
         <f t="shared" ref="E8:M8" ca="1" si="12">D8*(RANDBETWEEN(35,85)/100)</f>
-        <v>429.16812400000003</v>
-      </c>
-      <c r="F8" s="62">
+        <v>486.22431</v>
+      </c>
+      <c r="F8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>334.75113672000003</v>
-      </c>
-      <c r="G8" s="62">
+        <v>267.42337050000003</v>
+      </c>
+      <c r="G8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>177.41810246160003</v>
-      </c>
-      <c r="H8" s="62">
+        <v>136.38591895500002</v>
+      </c>
+      <c r="H8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>124.19267172312001</v>
-      </c>
-      <c r="I8" s="62">
+        <v>51.826649202900008</v>
+      </c>
+      <c r="I8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>91.902577075108809</v>
-      </c>
-      <c r="J8" s="62">
+        <v>18.139327221015002</v>
+      </c>
+      <c r="J8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>63.412778181825075</v>
-      </c>
-      <c r="K8" s="62">
+        <v>9.0696636105075008</v>
+      </c>
+      <c r="K8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>36.779411345458541</v>
-      </c>
-      <c r="L8" s="62">
+        <v>5.1697082579892752</v>
+      </c>
+      <c r="L8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>20.228676240002198</v>
-      </c>
-      <c r="M8" s="62">
+        <v>2.9984307896337796</v>
+      </c>
+      <c r="M8" s="60">
         <f t="shared" ca="1" si="12"/>
-        <v>16.5875145168018</v>
+        <v>1.9789643211582946</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="66">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
         <v>44228</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1385</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1080.3</v>
-      </c>
-      <c r="D9" s="62">
+        <v>1163.3999999999999</v>
+      </c>
+      <c r="D9" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>821.02800000000002</v>
-      </c>
-      <c r="E9" s="62">
+        <v>919.0859999999999</v>
+      </c>
+      <c r="E9" s="60">
         <f t="shared" ref="E9:L9" ca="1" si="13">D9*(RANDBETWEEN(35,85)/100)</f>
-        <v>451.56540000000007</v>
-      </c>
-      <c r="F9" s="62">
+        <v>560.64245999999991</v>
+      </c>
+      <c r="F9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>167.07919800000002</v>
-      </c>
-      <c r="G9" s="62">
+        <v>291.53407919999995</v>
+      </c>
+      <c r="G9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>106.93068672000001</v>
-      </c>
-      <c r="H9" s="62">
+        <v>174.92044751999995</v>
+      </c>
+      <c r="H9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>53.465343360000006</v>
-      </c>
-      <c r="I9" s="62">
+        <v>125.94272221439996</v>
+      </c>
+      <c r="I9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>24.594057945600003</v>
-      </c>
-      <c r="J9" s="62">
+        <v>57.933652218623983</v>
+      </c>
+      <c r="J9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>12.542969552256002</v>
-      </c>
-      <c r="K9" s="62">
+        <v>37.656873942105591</v>
+      </c>
+      <c r="K9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7766411223987211</v>
-      </c>
-      <c r="L9" s="62">
+        <v>26.736380498894967</v>
+      </c>
+      <c r="L9" s="60">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8883205611993605</v>
-      </c>
-      <c r="M9" s="62"/>
+        <v>20.854376789138076</v>
+      </c>
+      <c r="M9" s="60"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="66">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
         <v>44256</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1557</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1323.45</v>
-      </c>
-      <c r="D10" s="62">
+        <v>1198.8900000000001</v>
+      </c>
+      <c r="D10" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1085.229</v>
-      </c>
-      <c r="E10" s="62">
+        <v>983.08979999999997</v>
+      </c>
+      <c r="E10" s="60">
         <f t="shared" ref="E10:K10" ca="1" si="14">D10*(RANDBETWEEN(35,85)/100)</f>
-        <v>379.83015</v>
-      </c>
-      <c r="F10" s="62">
+        <v>403.06681799999996</v>
+      </c>
+      <c r="F10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>216.50318549999997</v>
-      </c>
-      <c r="G10" s="62">
+        <v>169.28806355999998</v>
+      </c>
+      <c r="G10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>142.89210242999999</v>
-      </c>
-      <c r="H10" s="62">
+        <v>133.73757021239999</v>
+      </c>
+      <c r="H10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>52.870077899099996</v>
-      </c>
-      <c r="I10" s="62">
+        <v>69.543536510447993</v>
+      </c>
+      <c r="I10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>29.607243623496</v>
-      </c>
-      <c r="J10" s="62">
+        <v>34.771768255223996</v>
+      </c>
+      <c r="J10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>20.725070536447198</v>
-      </c>
-      <c r="K10" s="62">
+        <v>20.863060953134397</v>
+      </c>
+      <c r="K10" s="60">
         <f t="shared" ca="1" si="14"/>
-        <v>13.056794437961734</v>
-      </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+        <v>11.05742230516123</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="66">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
         <v>44287</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1666</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1382.78</v>
-      </c>
-      <c r="D11" s="62">
+        <v>1266.1600000000001</v>
+      </c>
+      <c r="D11" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1120.0518</v>
-      </c>
-      <c r="E11" s="62">
+        <v>1025.5896000000002</v>
+      </c>
+      <c r="E11" s="60">
         <f t="shared" ref="E11:J11" ca="1" si="15">D11*(RANDBETWEEN(35,85)/100)</f>
-        <v>694.43211599999995</v>
-      </c>
-      <c r="F11" s="62">
+        <v>574.33017600000017</v>
+      </c>
+      <c r="F11" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>506.93544467999993</v>
-      </c>
-      <c r="G11" s="62">
+        <v>350.34140736000012</v>
+      </c>
+      <c r="G11" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>263.60643123359995</v>
-      </c>
-      <c r="H11" s="62">
+        <v>140.13656294400005</v>
+      </c>
+      <c r="H11" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>192.43269480052797</v>
-      </c>
-      <c r="I11" s="62">
+        <v>79.877840878080022</v>
+      </c>
+      <c r="I11" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>157.79480973643294</v>
-      </c>
-      <c r="J11" s="62">
+        <v>40.737698847820809</v>
+      </c>
+      <c r="J11" s="60">
         <f t="shared" ca="1" si="15"/>
-        <v>67.851768186666163</v>
-      </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
+        <v>15.480325562171908</v>
+      </c>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="66">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
         <v>44317</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1687</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1417.08</v>
-      </c>
-      <c r="D12" s="62">
+        <v>1349.6000000000001</v>
+      </c>
+      <c r="D12" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1091.1515999999999</v>
-      </c>
-      <c r="E12" s="62">
+        <v>1012.2</v>
+      </c>
+      <c r="E12" s="60">
         <f t="shared" ref="E12:I12" ca="1" si="16">D12*(RANDBETWEEN(35,85)/100)</f>
-        <v>469.19518799999997</v>
-      </c>
-      <c r="F12" s="62">
+        <v>546.58800000000008</v>
+      </c>
+      <c r="F12" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>234.59759399999999</v>
-      </c>
-      <c r="G12" s="62">
+        <v>273.29400000000004</v>
+      </c>
+      <c r="G12" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>140.75855639999997</v>
-      </c>
-      <c r="H12" s="62">
+        <v>169.44228000000001</v>
+      </c>
+      <c r="H12" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>97.123403915999972</v>
-      </c>
-      <c r="I12" s="62">
+        <v>66.082489200000012</v>
+      </c>
+      <c r="I12" s="60">
         <f t="shared" ca="1" si="16"/>
-        <v>82.554893328599974</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
+        <v>27.093820572000002</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="66">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
         <v>44348</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1700</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1343</v>
-      </c>
-      <c r="D13" s="62">
+        <v>1326</v>
+      </c>
+      <c r="D13" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1034.1100000000001</v>
-      </c>
-      <c r="E13" s="62">
+        <v>1127.0999999999999</v>
+      </c>
+      <c r="E13" s="60">
         <f t="shared" ref="E13:H13" ca="1" si="17">D13*(RANDBETWEEN(35,85)/100)</f>
-        <v>827.28800000000012</v>
-      </c>
-      <c r="F13" s="62">
+        <v>687.53099999999995</v>
+      </c>
+      <c r="F13" s="60">
         <f t="shared" ca="1" si="17"/>
-        <v>397.09824000000003</v>
-      </c>
-      <c r="G13" s="62">
+        <v>247.51115999999996</v>
+      </c>
+      <c r="G13" s="60">
         <f t="shared" ca="1" si="17"/>
-        <v>170.75224320000001</v>
-      </c>
-      <c r="H13" s="62">
+        <v>158.40714239999997</v>
+      </c>
+      <c r="H13" s="60">
         <f t="shared" ca="1" si="17"/>
-        <v>80.253554304000005</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
+        <v>117.22128537599998</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="66">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
         <v>44378</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1831</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1428.18</v>
-      </c>
-      <c r="D14" s="62">
+        <v>1446.49</v>
+      </c>
+      <c r="D14" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1099.6986000000002</v>
-      </c>
-      <c r="E14" s="62">
+        <v>1099.3324</v>
+      </c>
+      <c r="E14" s="60">
         <f t="shared" ref="E14:G14" ca="1" si="18">D14*(RANDBETWEEN(35,85)/100)</f>
-        <v>835.77093600000012</v>
-      </c>
-      <c r="F14" s="62">
+        <v>571.65284800000006</v>
+      </c>
+      <c r="F14" s="60">
         <f t="shared" ca="1" si="18"/>
-        <v>309.23524632000004</v>
-      </c>
-      <c r="G14" s="62">
+        <v>348.70823728000005</v>
+      </c>
+      <c r="G14" s="60">
         <f t="shared" ca="1" si="18"/>
-        <v>197.91055764480004</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+        <v>247.58284846880002</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="66">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
         <v>44409</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>1965</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1513.05</v>
-      </c>
-      <c r="D15" s="62">
+        <v>1611.3</v>
+      </c>
+      <c r="D15" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1270.962</v>
-      </c>
-      <c r="E15" s="62">
+        <v>1272.9270000000001</v>
+      </c>
+      <c r="E15" s="60">
         <f t="shared" ref="E15:F15" ca="1" si="19">D15*(RANDBETWEEN(35,85)/100)</f>
-        <v>521.09442000000001</v>
-      </c>
-      <c r="F15" s="62">
+        <v>483.71226000000007</v>
+      </c>
+      <c r="F15" s="60">
         <f t="shared" ca="1" si="19"/>
-        <v>364.76609400000001</v>
-      </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
+        <v>362.78419500000007</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="66">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
         <v>44440</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>2077</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1765.45</v>
-      </c>
-      <c r="D16" s="62">
+        <v>1578.52</v>
+      </c>
+      <c r="D16" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1394.7055</v>
-      </c>
-      <c r="E16" s="62">
+        <v>1231.2456</v>
+      </c>
+      <c r="E16" s="60">
         <f t="shared" ref="E16" ca="1" si="20">D16*(RANDBETWEEN(35,85)/100)</f>
-        <v>585.77630999999997</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
+        <v>529.435608</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="66">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
         <v>44470</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>2212</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1858.08</v>
-      </c>
-      <c r="D17" s="62">
+        <v>1791.72</v>
+      </c>
+      <c r="D17" s="60">
         <f t="shared" ca="1" si="11"/>
-        <v>1412.1407999999999</v>
-      </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
+        <v>1397.5416</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="66">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>44501</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>2220</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="60">
         <f t="shared" ca="1" si="10"/>
-        <v>1776</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
+        <v>1753.8000000000002</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="66">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
         <v>44531</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="60">
         <f t="shared" ca="1" si="9"/>
         <v>2350</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="65">
         <v>0</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="65">
         <v>1</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="65">
         <v>2</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="65">
         <v>3</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="65">
         <v>4</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="65">
         <v>5</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="65">
         <v>6</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="65">
         <v>7</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="65">
         <v>8</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="65">
         <v>9</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="65">
         <v>10</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="65">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="66">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>44197</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="66">
         <f t="shared" ref="B23:M23" ca="1" si="21">(B8/$B8)</f>
         <v>1</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>0.76</v>
-      </c>
-      <c r="D23" s="68">
+        <v>0.78</v>
+      </c>
+      <c r="D23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="E23" s="68">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>0.34526800000000002</v>
-      </c>
-      <c r="F23" s="68">
+        <v>0.39117000000000002</v>
+      </c>
+      <c r="F23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>0.26930904</v>
-      </c>
-      <c r="G23" s="68">
+        <v>0.21514350000000002</v>
+      </c>
+      <c r="G23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>0.14273379120000002</v>
-      </c>
-      <c r="H23" s="68">
+        <v>0.10972318500000001</v>
+      </c>
+      <c r="H23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>9.9913653840000005E-2</v>
-      </c>
-      <c r="I23" s="68">
+        <v>4.1694810300000003E-2</v>
+      </c>
+      <c r="I23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3936103841600001E-2</v>
-      </c>
-      <c r="J23" s="68">
+        <v>1.4593183605000001E-2</v>
+      </c>
+      <c r="J23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1015911650704002E-2</v>
-      </c>
-      <c r="K23" s="68">
+        <v>7.2965918025000003E-3</v>
+      </c>
+      <c r="K23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>2.9589228757408319E-2</v>
-      </c>
-      <c r="L23" s="68">
+        <v>4.1590573274250002E-3</v>
+      </c>
+      <c r="L23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>1.6274075816574574E-2</v>
-      </c>
-      <c r="M23" s="68">
+        <v>2.4122532499065001E-3</v>
+      </c>
+      <c r="M23" s="66">
         <f t="shared" ca="1" si="21"/>
-        <v>1.334474216959115E-2</v>
+        <v>1.5920871449382902E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="66">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
         <v>44228</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="66">
         <f t="shared" ref="B24:L24" ca="1" si="22">(B9/$B9)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="D24" s="68">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="D24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>0.59279999999999999</v>
-      </c>
-      <c r="E24" s="68">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="E24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>0.32604000000000005</v>
-      </c>
-      <c r="F24" s="68">
+        <v>0.40479599999999993</v>
+      </c>
+      <c r="F24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>0.12063480000000001</v>
-      </c>
-      <c r="G24" s="68">
+        <v>0.21049391999999997</v>
+      </c>
+      <c r="G24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>7.7206272000000006E-2</v>
-      </c>
-      <c r="H24" s="68">
+        <v>0.12629635199999997</v>
+      </c>
+      <c r="H24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>3.8603136000000003E-2</v>
-      </c>
-      <c r="I24" s="68">
+        <v>9.0933373439999979E-2</v>
+      </c>
+      <c r="I24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>1.7757442560000003E-2</v>
-      </c>
-      <c r="J24" s="68">
+        <v>4.1829351782399986E-2</v>
+      </c>
+      <c r="J24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>9.056295705600001E-3</v>
-      </c>
-      <c r="K24" s="68">
+        <v>2.7189078658559993E-2</v>
+      </c>
+      <c r="K24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>5.6149033374720009E-3</v>
-      </c>
-      <c r="L24" s="68">
+        <v>1.9304245847577593E-2</v>
+      </c>
+      <c r="L24" s="66">
         <f t="shared" ca="1" si="22"/>
-        <v>2.8074516687360005E-3</v>
-      </c>
-      <c r="M24" s="68"/>
+        <v>1.5057311761110524E-2</v>
+      </c>
+      <c r="M24" s="66"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="66">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
         <v>44256</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="66">
         <f t="shared" ref="B25:K25" ca="1" si="23">(B10/$B10)</f>
         <v>1</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>0.85</v>
-      </c>
-      <c r="D25" s="68">
+        <v>0.77</v>
+      </c>
+      <c r="D25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>0.69700000000000006</v>
-      </c>
-      <c r="E25" s="68">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="E25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>0.24395</v>
-      </c>
-      <c r="F25" s="68">
+        <v>0.25887399999999999</v>
+      </c>
+      <c r="F25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>0.13905149999999999</v>
-      </c>
-      <c r="G25" s="68">
+        <v>0.10872707999999999</v>
+      </c>
+      <c r="G25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>9.177399E-2</v>
-      </c>
-      <c r="H25" s="68">
+        <v>8.5894393199999988E-2</v>
+      </c>
+      <c r="H25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>3.39563763E-2</v>
-      </c>
-      <c r="I25" s="68">
+        <v>4.4665084463999992E-2</v>
+      </c>
+      <c r="I25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>1.9015570728E-2</v>
-      </c>
-      <c r="J25" s="68">
+        <v>2.2332542231999996E-2</v>
+      </c>
+      <c r="J25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>1.3310899509599999E-2</v>
-      </c>
-      <c r="K25" s="68">
+        <v>1.3399525339199999E-2</v>
+      </c>
+      <c r="K25" s="66">
         <f t="shared" ca="1" si="23"/>
-        <v>8.3858666910479988E-3</v>
-      </c>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
+        <v>7.1017484297759993E-3</v>
+      </c>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="66">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
         <v>44287</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="66">
         <f t="shared" ref="B26:J26" ca="1" si="24">(B11/$B11)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.83</v>
-      </c>
-      <c r="D26" s="68">
+        <v>0.76</v>
+      </c>
+      <c r="D26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.67230000000000001</v>
-      </c>
-      <c r="E26" s="68">
+        <v>0.61560000000000015</v>
+      </c>
+      <c r="E26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.41682599999999997</v>
-      </c>
-      <c r="F26" s="68">
+        <v>0.3447360000000001</v>
+      </c>
+      <c r="F26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.30428297999999998</v>
-      </c>
-      <c r="G26" s="68">
+        <v>0.21028896000000008</v>
+      </c>
+      <c r="G26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.15822714959999998</v>
-      </c>
-      <c r="H26" s="68">
+        <v>8.4115584000000035E-2</v>
+      </c>
+      <c r="H26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>0.11550581920799999</v>
-      </c>
-      <c r="I26" s="68">
+        <v>4.7945882880000013E-2</v>
+      </c>
+      <c r="I26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>9.4714771750559992E-2</v>
-      </c>
-      <c r="J26" s="68">
+        <v>2.4452400268800006E-2</v>
+      </c>
+      <c r="J26" s="66">
         <f t="shared" ca="1" si="24"/>
-        <v>4.0727351852740797E-2</v>
-      </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
+        <v>9.2919121021440027E-3</v>
+      </c>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="66">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>44317</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="66">
         <f t="shared" ref="B27:I27" ca="1" si="25">(B12/$B12)</f>
         <v>1</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>0.84</v>
-      </c>
-      <c r="D27" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>0.64679999999999993</v>
-      </c>
-      <c r="E27" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>0.27812399999999998</v>
-      </c>
-      <c r="F27" s="68">
+        <v>0.32400000000000007</v>
+      </c>
+      <c r="F27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>0.13906199999999999</v>
-      </c>
-      <c r="G27" s="68">
+        <v>0.16200000000000003</v>
+      </c>
+      <c r="G27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>8.3437199999999989E-2</v>
-      </c>
-      <c r="H27" s="68">
+        <v>0.10044</v>
+      </c>
+      <c r="H27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>5.7571667999999986E-2</v>
-      </c>
-      <c r="I27" s="68">
+        <v>3.9171600000000008E-2</v>
+      </c>
+      <c r="I27" s="66">
         <f t="shared" ca="1" si="25"/>
-        <v>4.8935917799999985E-2</v>
-      </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
+        <v>1.6060356000000001E-2</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="66">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
         <v>44348</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="66">
         <f t="shared" ref="B28:H28" ca="1" si="26">(B13/$B13)</f>
         <v>1</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.79</v>
-      </c>
-      <c r="D28" s="68">
+        <v>0.78</v>
+      </c>
+      <c r="D28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.60830000000000006</v>
-      </c>
-      <c r="E28" s="68">
+        <v>0.66299999999999992</v>
+      </c>
+      <c r="E28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.48664000000000007</v>
-      </c>
-      <c r="F28" s="68">
+        <v>0.40442999999999996</v>
+      </c>
+      <c r="F28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23358720000000002</v>
-      </c>
-      <c r="G28" s="68">
+        <v>0.14559479999999997</v>
+      </c>
+      <c r="G28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10044249600000001</v>
-      </c>
-      <c r="H28" s="68">
+        <v>9.3180671999999978E-2</v>
+      </c>
+      <c r="H28" s="66">
         <f t="shared" ca="1" si="26"/>
-        <v>4.7207973120000003E-2</v>
-      </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+        <v>6.895369727999999E-2</v>
+      </c>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="66">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
         <v>44378</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="66">
         <f t="shared" ref="B29:G29" ca="1" si="27">(B14/$B14)</f>
         <v>1</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="66">
         <f t="shared" ca="1" si="27"/>
-        <v>0.78</v>
-      </c>
-      <c r="D29" s="68">
+        <v>0.79</v>
+      </c>
+      <c r="D29" s="66">
         <f t="shared" ca="1" si="27"/>
-        <v>0.60060000000000013</v>
-      </c>
-      <c r="E29" s="68">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="E29" s="66">
         <f t="shared" ca="1" si="27"/>
-        <v>0.45645600000000008</v>
-      </c>
-      <c r="F29" s="68">
+        <v>0.31220800000000004</v>
+      </c>
+      <c r="F29" s="66">
         <f t="shared" ca="1" si="27"/>
-        <v>0.16888872000000002</v>
-      </c>
-      <c r="G29" s="68">
+        <v>0.19044688000000001</v>
+      </c>
+      <c r="G29" s="66">
         <f t="shared" ca="1" si="27"/>
-        <v>0.10808878080000002</v>
-      </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
+        <v>0.1352172848</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="66">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
         <v>44409</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="66">
         <f t="shared" ref="B30:F30" ca="1" si="28">(B15/$B15)</f>
         <v>1</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="66">
         <f t="shared" ca="1" si="28"/>
-        <v>0.77</v>
-      </c>
-      <c r="D30" s="68">
+        <v>0.82</v>
+      </c>
+      <c r="D30" s="66">
         <f t="shared" ca="1" si="28"/>
-        <v>0.64680000000000004</v>
-      </c>
-      <c r="E30" s="68">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="E30" s="66">
         <f t="shared" ca="1" si="28"/>
-        <v>0.26518799999999998</v>
-      </c>
-      <c r="F30" s="68">
+        <v>0.24616400000000005</v>
+      </c>
+      <c r="F30" s="66">
         <f t="shared" ca="1" si="28"/>
-        <v>0.18563160000000001</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+        <v>0.18462300000000004</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="66">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
         <v>44440</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="66">
         <f t="shared" ref="B31:E31" ca="1" si="29">(B16/$B16)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="66">
         <f t="shared" ca="1" si="29"/>
-        <v>0.85</v>
-      </c>
-      <c r="D31" s="68">
+        <v>0.76</v>
+      </c>
+      <c r="D31" s="66">
         <f t="shared" ca="1" si="29"/>
-        <v>0.67149999999999999</v>
-      </c>
-      <c r="E31" s="68">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="E31" s="66">
         <f t="shared" ca="1" si="29"/>
-        <v>0.28203</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
+        <v>0.25490400000000002</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="66">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
         <v>44470</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="66">
         <f t="shared" ref="B32:D32" ca="1" si="30">(B17/$B17)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="66">
         <f t="shared" ca="1" si="30"/>
-        <v>0.84</v>
-      </c>
-      <c r="D32" s="68">
+        <v>0.81</v>
+      </c>
+      <c r="D32" s="66">
         <f t="shared" ca="1" si="30"/>
-        <v>0.63839999999999997</v>
-      </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="66">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
         <v>44501</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="66">
         <f t="shared" ref="B33:C33" ca="1" si="31">(B18/$B18)</f>
         <v>1</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="66">
         <f t="shared" ca="1" si="31"/>
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
+        <v>0.79</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="66">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
         <v>44531</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="66">
         <f t="shared" ref="B34" ca="1" si="32">(B19/$B19)</f>
         <v>1</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
